--- a/public/dat/B. TECH. III SEM DECEMBER 2020(COVID 19).xlsx
+++ b/public/dat/B. TECH. III SEM DECEMBER 2020(COVID 19).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\sakshi\Study\website\Academic\public\dat\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="11520" windowHeight="7872" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="C S" sheetId="6" r:id="rId1"/>
@@ -26,7 +31,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">EE!$1:$7</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">ME!$1:$7</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2049,9 +2054,6 @@
     <t>Sohan Lal</t>
   </si>
   <si>
-    <t>Rajat  Bisht</t>
-  </si>
-  <si>
     <t>Vinod Bisht</t>
   </si>
   <si>
@@ -2296,16 +2298,19 @@
   </si>
   <si>
     <t>Back in TCE 231, PCE 231, PCE232</t>
+  </si>
+  <si>
+    <t>Rajat Bisht</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3212,42 +3217,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3260,13 +3229,43 @@
     <xf numFmtId="1" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3277,6 +3276,18 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3290,13 +3301,10 @@
     <xf numFmtId="1" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3307,9 +3315,6 @@
     </xf>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3962,7 +3967,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A585649-10F3-4738-91BC-E48808600C46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A585649-10F3-4738-91BC-E48808600C46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4017,7 +4022,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5405FE8-5A20-4820-BF48-37B2E95B0358}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C5405FE8-5A20-4820-BF48-37B2E95B0358}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4072,7 +4077,7 @@
         <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03646E2F-BE63-4CAD-AE0B-56AEBDE7A062}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{03646E2F-BE63-4CAD-AE0B-56AEBDE7A062}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4132,7 +4137,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{087FAA4A-0FF7-4F58-BFAD-D251569A299D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{087FAA4A-0FF7-4F58-BFAD-D251569A299D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4192,7 +4197,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49D35F7C-F288-445B-8B7C-686C595F7711}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49D35F7C-F288-445B-8B7C-686C595F7711}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4247,7 +4252,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDA4C401-544F-4D6D-B2F4-549B38B2F07C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EDA4C401-544F-4D6D-B2F4-549B38B2F07C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4307,7 +4312,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2557DAC-C50A-4516-AB18-4BD5020B6DAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D2557DAC-C50A-4516-AB18-4BD5020B6DAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4353,7 +4358,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="ECE-I"/>
@@ -5271,7 +5276,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5303,9 +5308,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5337,6 +5343,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5512,7 +5519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -5522,7 +5529,7 @@
       <selection activeCell="AM70" sqref="AM70:AZ70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.109375" style="13"/>
     <col min="2" max="2" width="28.33203125" style="13" customWidth="1"/>
@@ -5538,196 +5545,196 @@
     <col min="39" max="16384" width="9.109375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="53.25" customHeight="1">
-      <c r="B1" s="197" t="s">
+    <row r="1" spans="1:38" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="206" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197"/>
-      <c r="G1" s="197"/>
-      <c r="H1" s="197"/>
-      <c r="I1" s="197"/>
-      <c r="J1" s="197"/>
-      <c r="K1" s="197"/>
-      <c r="L1" s="197"/>
-      <c r="M1" s="197"/>
-      <c r="N1" s="197"/>
-      <c r="O1" s="197"/>
-      <c r="P1" s="197"/>
-      <c r="Q1" s="197"/>
-      <c r="R1" s="197"/>
-      <c r="S1" s="197"/>
-      <c r="T1" s="197"/>
-      <c r="U1" s="197"/>
-      <c r="V1" s="197"/>
-      <c r="W1" s="197"/>
-      <c r="X1" s="197"/>
-      <c r="Y1" s="197"/>
-      <c r="Z1" s="197"/>
-      <c r="AA1" s="197"/>
-      <c r="AB1" s="197"/>
-      <c r="AC1" s="197"/>
-      <c r="AD1" s="197"/>
-      <c r="AE1" s="197"/>
-      <c r="AF1" s="197"/>
-      <c r="AG1" s="197"/>
-      <c r="AH1" s="197"/>
-      <c r="AI1" s="197"/>
-      <c r="AJ1" s="197"/>
-      <c r="AK1" s="197"/>
-      <c r="AL1" s="197"/>
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="206"/>
+      <c r="I1" s="206"/>
+      <c r="J1" s="206"/>
+      <c r="K1" s="206"/>
+      <c r="L1" s="206"/>
+      <c r="M1" s="206"/>
+      <c r="N1" s="206"/>
+      <c r="O1" s="206"/>
+      <c r="P1" s="206"/>
+      <c r="Q1" s="206"/>
+      <c r="R1" s="206"/>
+      <c r="S1" s="206"/>
+      <c r="T1" s="206"/>
+      <c r="U1" s="206"/>
+      <c r="V1" s="206"/>
+      <c r="W1" s="206"/>
+      <c r="X1" s="206"/>
+      <c r="Y1" s="206"/>
+      <c r="Z1" s="206"/>
+      <c r="AA1" s="206"/>
+      <c r="AB1" s="206"/>
+      <c r="AC1" s="206"/>
+      <c r="AD1" s="206"/>
+      <c r="AE1" s="206"/>
+      <c r="AF1" s="206"/>
+      <c r="AG1" s="206"/>
+      <c r="AH1" s="206"/>
+      <c r="AI1" s="206"/>
+      <c r="AJ1" s="206"/>
+      <c r="AK1" s="206"/>
+      <c r="AL1" s="206"/>
     </row>
-    <row r="2" spans="1:38" ht="53.25" customHeight="1">
-      <c r="B2" s="197" t="s">
+    <row r="2" spans="1:38" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="206" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="197"/>
-      <c r="F2" s="197"/>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197"/>
-      <c r="J2" s="197"/>
-      <c r="K2" s="197"/>
-      <c r="L2" s="197"/>
-      <c r="M2" s="197"/>
-      <c r="N2" s="197"/>
-      <c r="O2" s="197"/>
-      <c r="P2" s="197"/>
-      <c r="Q2" s="197"/>
-      <c r="R2" s="197"/>
-      <c r="S2" s="197"/>
-      <c r="T2" s="197"/>
-      <c r="U2" s="197"/>
-      <c r="V2" s="197"/>
-      <c r="W2" s="197"/>
-      <c r="X2" s="197"/>
-      <c r="Y2" s="197"/>
-      <c r="Z2" s="197"/>
-      <c r="AA2" s="197"/>
-      <c r="AB2" s="197"/>
-      <c r="AC2" s="197"/>
-      <c r="AD2" s="197"/>
-      <c r="AE2" s="197"/>
-      <c r="AF2" s="197"/>
-      <c r="AG2" s="197"/>
-      <c r="AH2" s="197"/>
-      <c r="AI2" s="197"/>
-      <c r="AJ2" s="197"/>
-      <c r="AK2" s="197"/>
-      <c r="AL2" s="197"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="206"/>
+      <c r="K2" s="206"/>
+      <c r="L2" s="206"/>
+      <c r="M2" s="206"/>
+      <c r="N2" s="206"/>
+      <c r="O2" s="206"/>
+      <c r="P2" s="206"/>
+      <c r="Q2" s="206"/>
+      <c r="R2" s="206"/>
+      <c r="S2" s="206"/>
+      <c r="T2" s="206"/>
+      <c r="U2" s="206"/>
+      <c r="V2" s="206"/>
+      <c r="W2" s="206"/>
+      <c r="X2" s="206"/>
+      <c r="Y2" s="206"/>
+      <c r="Z2" s="206"/>
+      <c r="AA2" s="206"/>
+      <c r="AB2" s="206"/>
+      <c r="AC2" s="206"/>
+      <c r="AD2" s="206"/>
+      <c r="AE2" s="206"/>
+      <c r="AF2" s="206"/>
+      <c r="AG2" s="206"/>
+      <c r="AH2" s="206"/>
+      <c r="AI2" s="206"/>
+      <c r="AJ2" s="206"/>
+      <c r="AK2" s="206"/>
+      <c r="AL2" s="206"/>
     </row>
-    <row r="3" spans="1:38" ht="53.25" customHeight="1">
-      <c r="B3" s="198" t="s">
+    <row r="3" spans="1:38" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="207" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="198"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="198"/>
-      <c r="F3" s="198"/>
-      <c r="G3" s="198"/>
-      <c r="H3" s="198"/>
-      <c r="I3" s="198"/>
-      <c r="J3" s="198"/>
-      <c r="K3" s="198"/>
-      <c r="L3" s="198"/>
-      <c r="M3" s="198"/>
-      <c r="N3" s="198"/>
-      <c r="O3" s="198"/>
-      <c r="P3" s="198"/>
-      <c r="Q3" s="198"/>
-      <c r="R3" s="198"/>
-      <c r="S3" s="198"/>
-      <c r="T3" s="198"/>
-      <c r="U3" s="198"/>
-      <c r="V3" s="198"/>
-      <c r="W3" s="198"/>
-      <c r="X3" s="198"/>
-      <c r="Y3" s="198"/>
-      <c r="Z3" s="198"/>
-      <c r="AA3" s="198"/>
-      <c r="AB3" s="198"/>
-      <c r="AC3" s="198"/>
-      <c r="AD3" s="198"/>
-      <c r="AE3" s="198"/>
-      <c r="AF3" s="198"/>
-      <c r="AG3" s="198"/>
-      <c r="AH3" s="198"/>
-      <c r="AI3" s="198"/>
-      <c r="AJ3" s="198"/>
-      <c r="AK3" s="198"/>
-      <c r="AL3" s="198"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="207"/>
+      <c r="H3" s="207"/>
+      <c r="I3" s="207"/>
+      <c r="J3" s="207"/>
+      <c r="K3" s="207"/>
+      <c r="L3" s="207"/>
+      <c r="M3" s="207"/>
+      <c r="N3" s="207"/>
+      <c r="O3" s="207"/>
+      <c r="P3" s="207"/>
+      <c r="Q3" s="207"/>
+      <c r="R3" s="207"/>
+      <c r="S3" s="207"/>
+      <c r="T3" s="207"/>
+      <c r="U3" s="207"/>
+      <c r="V3" s="207"/>
+      <c r="W3" s="207"/>
+      <c r="X3" s="207"/>
+      <c r="Y3" s="207"/>
+      <c r="Z3" s="207"/>
+      <c r="AA3" s="207"/>
+      <c r="AB3" s="207"/>
+      <c r="AC3" s="207"/>
+      <c r="AD3" s="207"/>
+      <c r="AE3" s="207"/>
+      <c r="AF3" s="207"/>
+      <c r="AG3" s="207"/>
+      <c r="AH3" s="207"/>
+      <c r="AI3" s="207"/>
+      <c r="AJ3" s="207"/>
+      <c r="AK3" s="207"/>
+      <c r="AL3" s="207"/>
     </row>
-    <row r="4" spans="1:38" ht="151.5" customHeight="1">
-      <c r="A4" s="208" t="s">
+    <row r="4" spans="1:38" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="196" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="211" t="s">
+      <c r="B4" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="199" t="s">
+      <c r="C4" s="200" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="199" t="s">
+      <c r="D4" s="200" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="212" t="s">
+      <c r="E4" s="201" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="205" t="s">
+      <c r="F4" s="202" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="196" t="s">
+      <c r="H4" s="203" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="196"/>
-      <c r="J4" s="196"/>
-      <c r="K4" s="196" t="s">
+      <c r="I4" s="203"/>
+      <c r="J4" s="203"/>
+      <c r="K4" s="203" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="196"/>
-      <c r="M4" s="196"/>
-      <c r="N4" s="202" t="s">
+      <c r="L4" s="203"/>
+      <c r="M4" s="203"/>
+      <c r="N4" s="208" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="203"/>
-      <c r="P4" s="204"/>
-      <c r="Q4" s="202" t="s">
+      <c r="O4" s="209"/>
+      <c r="P4" s="210"/>
+      <c r="Q4" s="208" t="s">
         <v>57</v>
       </c>
-      <c r="R4" s="203"/>
-      <c r="S4" s="204"/>
-      <c r="T4" s="196" t="s">
+      <c r="R4" s="209"/>
+      <c r="S4" s="210"/>
+      <c r="T4" s="203" t="s">
         <v>38</v>
       </c>
-      <c r="U4" s="196"/>
-      <c r="V4" s="196"/>
-      <c r="W4" s="196" t="s">
+      <c r="U4" s="203"/>
+      <c r="V4" s="203"/>
+      <c r="W4" s="203" t="s">
         <v>58</v>
       </c>
-      <c r="X4" s="196"/>
-      <c r="Y4" s="196"/>
-      <c r="Z4" s="196" t="s">
+      <c r="X4" s="203"/>
+      <c r="Y4" s="203"/>
+      <c r="Z4" s="203" t="s">
         <v>68</v>
       </c>
-      <c r="AA4" s="196"/>
-      <c r="AB4" s="196"/>
-      <c r="AC4" s="196" t="s">
+      <c r="AA4" s="203"/>
+      <c r="AB4" s="203"/>
+      <c r="AC4" s="203" t="s">
         <v>69</v>
       </c>
-      <c r="AD4" s="196"/>
-      <c r="AE4" s="196"/>
-      <c r="AF4" s="196" t="s">
+      <c r="AD4" s="203"/>
+      <c r="AE4" s="203"/>
+      <c r="AF4" s="203" t="s">
         <v>59</v>
       </c>
-      <c r="AG4" s="196"/>
-      <c r="AH4" s="196"/>
+      <c r="AG4" s="203"/>
+      <c r="AH4" s="203"/>
       <c r="AI4" s="113" t="s">
         <v>60</v>
       </c>
@@ -5741,13 +5748,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="57.75" customHeight="1">
-      <c r="A5" s="209"/>
-      <c r="B5" s="211"/>
-      <c r="C5" s="200"/>
-      <c r="D5" s="200"/>
-      <c r="E5" s="212"/>
-      <c r="F5" s="206"/>
+    <row r="5" spans="1:38" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="197"/>
+      <c r="B5" s="199"/>
+      <c r="C5" s="204"/>
+      <c r="D5" s="204"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="211"/>
       <c r="G5" s="18"/>
       <c r="H5" s="11" t="s">
         <v>7</v>
@@ -5835,13 +5842,13 @@
       <c r="AK5" s="17"/>
       <c r="AL5" s="17"/>
     </row>
-    <row r="6" spans="1:38" ht="45" customHeight="1">
-      <c r="A6" s="209"/>
-      <c r="B6" s="211"/>
-      <c r="C6" s="200"/>
-      <c r="D6" s="200"/>
-      <c r="E6" s="212"/>
-      <c r="F6" s="206"/>
+    <row r="6" spans="1:38" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="197"/>
+      <c r="B6" s="199"/>
+      <c r="C6" s="204"/>
+      <c r="D6" s="204"/>
+      <c r="E6" s="201"/>
+      <c r="F6" s="211"/>
       <c r="G6" s="42" t="s">
         <v>2</v>
       </c>
@@ -5944,13 +5951,13 @@
       <c r="AK6" s="19"/>
       <c r="AL6" s="59"/>
     </row>
-    <row r="7" spans="1:38" ht="45.75" customHeight="1">
-      <c r="A7" s="210"/>
-      <c r="B7" s="199"/>
-      <c r="C7" s="201"/>
-      <c r="D7" s="201"/>
-      <c r="E7" s="205"/>
-      <c r="F7" s="207"/>
+    <row r="7" spans="1:38" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="198"/>
+      <c r="B7" s="200"/>
+      <c r="C7" s="205"/>
+      <c r="D7" s="205"/>
+      <c r="E7" s="202"/>
+      <c r="F7" s="212"/>
       <c r="G7" s="20" t="s">
         <v>3</v>
       </c>
@@ -6024,7 +6031,7 @@
       <c r="AK7" s="21"/>
       <c r="AL7" s="60"/>
     </row>
-    <row r="8" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="8" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="74">
         <v>1</v>
       </c>
@@ -6142,11 +6149,11 @@
         <v>917</v>
       </c>
       <c r="AK8" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL8" s="88"/>
     </row>
-    <row r="9" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="9" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="74">
         <v>2</v>
       </c>
@@ -6264,11 +6271,11 @@
         <v>982</v>
       </c>
       <c r="AK9" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL9" s="88"/>
     </row>
-    <row r="10" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="10" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="74">
         <v>3</v>
       </c>
@@ -6386,11 +6393,11 @@
         <v>822</v>
       </c>
       <c r="AK10" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL10" s="88"/>
     </row>
-    <row r="11" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="11" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="74">
         <v>4</v>
       </c>
@@ -6508,11 +6515,11 @@
         <v>1037</v>
       </c>
       <c r="AK11" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL11" s="88"/>
     </row>
-    <row r="12" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="12" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="74">
         <v>5</v>
       </c>
@@ -6630,11 +6637,11 @@
         <v>973</v>
       </c>
       <c r="AK12" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL12" s="88"/>
     </row>
-    <row r="13" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="13" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="74">
         <v>6</v>
       </c>
@@ -6752,11 +6759,11 @@
         <v>979</v>
       </c>
       <c r="AK13" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL13" s="88"/>
     </row>
-    <row r="14" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="14" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="74">
         <v>7</v>
       </c>
@@ -6874,11 +6881,11 @@
         <v>938</v>
       </c>
       <c r="AK14" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL14" s="88"/>
     </row>
-    <row r="15" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="15" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="74">
         <v>8</v>
       </c>
@@ -6996,11 +7003,11 @@
         <v>922</v>
       </c>
       <c r="AK15" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL15" s="88"/>
     </row>
-    <row r="16" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="16" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="74">
         <v>9</v>
       </c>
@@ -7118,11 +7125,11 @@
         <v>980</v>
       </c>
       <c r="AK16" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL16" s="88"/>
     </row>
-    <row r="17" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="17" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="74">
         <v>10</v>
       </c>
@@ -7240,11 +7247,11 @@
         <v>844</v>
       </c>
       <c r="AK17" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL17" s="88"/>
     </row>
-    <row r="18" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="18" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="74">
         <v>11</v>
       </c>
@@ -7362,11 +7369,11 @@
         <v>918</v>
       </c>
       <c r="AK18" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL18" s="88"/>
     </row>
-    <row r="19" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="19" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="74">
         <v>12</v>
       </c>
@@ -7484,11 +7491,11 @@
         <v>970</v>
       </c>
       <c r="AK19" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL19" s="88"/>
     </row>
-    <row r="20" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="20" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="74">
         <v>13</v>
       </c>
@@ -7606,11 +7613,11 @@
         <v>960</v>
       </c>
       <c r="AK20" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL20" s="88"/>
     </row>
-    <row r="21" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="21" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="74">
         <v>14</v>
       </c>
@@ -7728,11 +7735,11 @@
         <v>893</v>
       </c>
       <c r="AK21" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL21" s="88"/>
     </row>
-    <row r="22" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="22" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="74">
         <v>15</v>
       </c>
@@ -7850,11 +7857,11 @@
         <v>853</v>
       </c>
       <c r="AK22" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL22" s="88"/>
     </row>
-    <row r="23" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="23" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="74">
         <v>16</v>
       </c>
@@ -7972,11 +7979,11 @@
         <v>939</v>
       </c>
       <c r="AK23" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL23" s="88"/>
     </row>
-    <row r="24" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="24" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="74">
         <v>17</v>
       </c>
@@ -8094,11 +8101,11 @@
         <v>969</v>
       </c>
       <c r="AK24" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL24" s="88"/>
     </row>
-    <row r="25" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="25" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="74">
         <v>18</v>
       </c>
@@ -8216,13 +8223,13 @@
         <v>881</v>
       </c>
       <c r="AK25" s="148" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AL25" s="88" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
-    <row r="26" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="26" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="74">
         <v>19</v>
       </c>
@@ -8340,11 +8347,11 @@
         <v>971</v>
       </c>
       <c r="AK26" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL26" s="88"/>
     </row>
-    <row r="27" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="27" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="74">
         <v>20</v>
       </c>
@@ -8462,11 +8469,11 @@
         <v>911</v>
       </c>
       <c r="AK27" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL27" s="88"/>
     </row>
-    <row r="28" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="28" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="74">
         <v>21</v>
       </c>
@@ -8584,11 +8591,11 @@
         <v>1046</v>
       </c>
       <c r="AK28" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL28" s="88"/>
     </row>
-    <row r="29" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="29" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="74">
         <v>22</v>
       </c>
@@ -8706,11 +8713,11 @@
         <v>951</v>
       </c>
       <c r="AK29" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL29" s="88"/>
     </row>
-    <row r="30" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="30" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="74">
         <v>23</v>
       </c>
@@ -8828,11 +8835,11 @@
         <v>858</v>
       </c>
       <c r="AK30" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL30" s="88"/>
     </row>
-    <row r="31" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="31" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="74">
         <v>24</v>
       </c>
@@ -8950,11 +8957,11 @@
         <v>931</v>
       </c>
       <c r="AK31" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL31" s="88"/>
     </row>
-    <row r="32" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="32" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="74">
         <v>25</v>
       </c>
@@ -9072,11 +9079,11 @@
         <v>904</v>
       </c>
       <c r="AK32" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL32" s="88"/>
     </row>
-    <row r="33" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="33" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="74">
         <v>26</v>
       </c>
@@ -9194,11 +9201,11 @@
         <v>860</v>
       </c>
       <c r="AK33" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL33" s="88"/>
     </row>
-    <row r="34" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="34" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="74">
         <v>27</v>
       </c>
@@ -9316,11 +9323,11 @@
         <v>918</v>
       </c>
       <c r="AK34" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL34" s="88"/>
     </row>
-    <row r="35" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="35" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="74">
         <v>28</v>
       </c>
@@ -9438,11 +9445,11 @@
         <v>870</v>
       </c>
       <c r="AK35" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL35" s="88"/>
     </row>
-    <row r="36" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="36" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="74">
         <v>29</v>
       </c>
@@ -9560,11 +9567,11 @@
         <v>973</v>
       </c>
       <c r="AK36" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL36" s="88"/>
     </row>
-    <row r="37" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="37" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="74">
         <v>30</v>
       </c>
@@ -9682,11 +9689,11 @@
         <v>916</v>
       </c>
       <c r="AK37" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL37" s="88"/>
     </row>
-    <row r="38" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="38" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="74">
         <v>31</v>
       </c>
@@ -9804,11 +9811,11 @@
         <v>989</v>
       </c>
       <c r="AK38" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL38" s="88"/>
     </row>
-    <row r="39" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="39" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="74">
         <v>32</v>
       </c>
@@ -9926,11 +9933,11 @@
         <v>1047</v>
       </c>
       <c r="AK39" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL39" s="88"/>
     </row>
-    <row r="40" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="40" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="74">
         <v>33</v>
       </c>
@@ -10048,11 +10055,11 @@
         <v>989</v>
       </c>
       <c r="AK40" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL40" s="88"/>
     </row>
-    <row r="41" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="41" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="74">
         <v>34</v>
       </c>
@@ -10170,11 +10177,11 @@
         <v>879</v>
       </c>
       <c r="AK41" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL41" s="88"/>
     </row>
-    <row r="42" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="42" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="74">
         <v>35</v>
       </c>
@@ -10265,10 +10272,10 @@
         <v>36</v>
       </c>
       <c r="AC42" s="74" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AD42" s="74" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AE42" s="77">
         <f t="shared" si="7"/>
@@ -10292,13 +10299,13 @@
         <v>757</v>
       </c>
       <c r="AK42" s="148" t="s">
+        <v>711</v>
+      </c>
+      <c r="AL42" s="88" t="s">
         <v>712</v>
       </c>
-      <c r="AL42" s="88" t="s">
-        <v>713</v>
-      </c>
     </row>
-    <row r="43" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="43" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="74">
         <v>36</v>
       </c>
@@ -10416,11 +10423,11 @@
         <v>757</v>
       </c>
       <c r="AK43" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL43" s="88"/>
     </row>
-    <row r="44" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="44" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="74">
         <v>37</v>
       </c>
@@ -10538,11 +10545,11 @@
         <v>972</v>
       </c>
       <c r="AK44" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL44" s="88"/>
     </row>
-    <row r="45" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="45" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="74">
         <v>38</v>
       </c>
@@ -10660,11 +10667,11 @@
         <v>879</v>
       </c>
       <c r="AK45" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL45" s="88"/>
     </row>
-    <row r="46" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="46" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="74">
         <v>39</v>
       </c>
@@ -10782,11 +10789,11 @@
         <v>952</v>
       </c>
       <c r="AK46" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL46" s="88"/>
     </row>
-    <row r="47" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="47" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="74">
         <v>40</v>
       </c>
@@ -10904,11 +10911,11 @@
         <v>975</v>
       </c>
       <c r="AK47" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL47" s="88"/>
     </row>
-    <row r="48" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="48" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="74">
         <v>41</v>
       </c>
@@ -11026,11 +11033,11 @@
         <v>935</v>
       </c>
       <c r="AK48" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL48" s="88"/>
     </row>
-    <row r="49" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="49" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="74">
         <v>42</v>
       </c>
@@ -11148,11 +11155,11 @@
         <v>944</v>
       </c>
       <c r="AK49" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL49" s="88"/>
     </row>
-    <row r="50" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="50" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="74">
         <v>43</v>
       </c>
@@ -11270,11 +11277,11 @@
         <v>871</v>
       </c>
       <c r="AK50" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL50" s="88"/>
     </row>
-    <row r="51" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="51" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="74">
         <v>44</v>
       </c>
@@ -11392,13 +11399,13 @@
         <v>782</v>
       </c>
       <c r="AK51" s="148" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AL51" s="88" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
-    <row r="52" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="52" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="74">
         <v>45</v>
       </c>
@@ -11516,11 +11523,11 @@
         <v>986</v>
       </c>
       <c r="AK52" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL52" s="88"/>
     </row>
-    <row r="53" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="53" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="74">
         <v>46</v>
       </c>
@@ -11638,11 +11645,11 @@
         <v>956</v>
       </c>
       <c r="AK53" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL53" s="88"/>
     </row>
-    <row r="54" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="54" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="74">
         <v>47</v>
       </c>
@@ -11760,11 +11767,11 @@
         <v>941</v>
       </c>
       <c r="AK54" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL54" s="88"/>
     </row>
-    <row r="55" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="55" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="74">
         <v>48</v>
       </c>
@@ -11882,11 +11889,11 @@
         <v>937</v>
       </c>
       <c r="AK55" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL55" s="93"/>
     </row>
-    <row r="56" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="56" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="74">
         <v>49</v>
       </c>
@@ -12004,11 +12011,11 @@
         <v>943</v>
       </c>
       <c r="AK56" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL56" s="88"/>
     </row>
-    <row r="57" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="57" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="74">
         <v>50</v>
       </c>
@@ -12126,11 +12133,11 @@
         <v>992</v>
       </c>
       <c r="AK57" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL57" s="88"/>
     </row>
-    <row r="58" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="58" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="74">
         <v>51</v>
       </c>
@@ -12248,11 +12255,11 @@
         <v>848</v>
       </c>
       <c r="AK58" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL58" s="88"/>
     </row>
-    <row r="59" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="59" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="74">
         <v>52</v>
       </c>
@@ -12370,11 +12377,11 @@
         <v>785</v>
       </c>
       <c r="AK59" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL59" s="88"/>
     </row>
-    <row r="60" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1">
+    <row r="60" spans="1:38" s="89" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="74">
         <v>53</v>
       </c>
@@ -12492,11 +12499,11 @@
         <v>1001</v>
       </c>
       <c r="AK60" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL60" s="88"/>
     </row>
-    <row r="61" spans="1:38" s="74" customFormat="1" ht="87.75" customHeight="1">
+    <row r="61" spans="1:38" s="74" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="74">
         <v>54</v>
       </c>
@@ -12614,11 +12621,11 @@
         <v>892</v>
       </c>
       <c r="AK61" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL61" s="77"/>
     </row>
-    <row r="62" spans="1:38" s="74" customFormat="1" ht="87.75" customHeight="1">
+    <row r="62" spans="1:38" s="74" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="74">
         <v>55</v>
       </c>
@@ -12736,11 +12743,11 @@
         <v>823</v>
       </c>
       <c r="AK62" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL62" s="77"/>
     </row>
-    <row r="63" spans="1:38" s="74" customFormat="1" ht="87.75" customHeight="1">
+    <row r="63" spans="1:38" s="74" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="74">
         <v>56</v>
       </c>
@@ -12858,11 +12865,11 @@
         <v>880</v>
       </c>
       <c r="AK63" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL63" s="102"/>
     </row>
-    <row r="64" spans="1:38" s="74" customFormat="1" ht="87.75" customHeight="1">
+    <row r="64" spans="1:38" s="74" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="74">
         <v>57</v>
       </c>
@@ -12980,13 +12987,13 @@
         <v>683</v>
       </c>
       <c r="AK64" s="148" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AL64" s="88" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
-    <row r="65" spans="1:38" s="74" customFormat="1" ht="87.75" customHeight="1">
+    <row r="65" spans="1:38" s="74" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="74">
         <v>58</v>
       </c>
@@ -13003,7 +13010,7 @@
         <v>550</v>
       </c>
       <c r="F65" s="101" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G65" s="75"/>
       <c r="H65" s="74">
@@ -13104,10 +13111,10 @@
         <v>814</v>
       </c>
       <c r="AK65" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
-    <row r="66" spans="1:38" s="74" customFormat="1" ht="87.75" customHeight="1">
+    <row r="66" spans="1:38" s="74" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="74">
         <v>59</v>
       </c>
@@ -13225,11 +13232,11 @@
         <v>757</v>
       </c>
       <c r="AK66" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL66" s="88"/>
     </row>
-    <row r="67" spans="1:38" s="74" customFormat="1" ht="87.75" customHeight="1">
+    <row r="67" spans="1:38" s="74" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="74">
         <v>60</v>
       </c>
@@ -13347,11 +13354,11 @@
         <v>808</v>
       </c>
       <c r="AK67" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL67" s="88"/>
     </row>
-    <row r="68" spans="1:38" s="74" customFormat="1" ht="87.75" customHeight="1">
+    <row r="68" spans="1:38" s="74" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="74">
         <v>61</v>
       </c>
@@ -13469,11 +13476,11 @@
         <v>913</v>
       </c>
       <c r="AK68" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL68" s="88"/>
     </row>
-    <row r="69" spans="1:38" s="74" customFormat="1" ht="87.75" customHeight="1">
+    <row r="69" spans="1:38" s="74" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="74">
         <v>62</v>
       </c>
@@ -13591,11 +13598,11 @@
         <v>889</v>
       </c>
       <c r="AK69" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL69" s="88"/>
     </row>
-    <row r="70" spans="1:38" s="74" customFormat="1" ht="87.75" customHeight="1">
+    <row r="70" spans="1:38" s="74" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="74">
         <v>63</v>
       </c>
@@ -13713,11 +13720,11 @@
         <v>916</v>
       </c>
       <c r="AK70" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL70" s="88"/>
     </row>
-    <row r="71" spans="1:38" ht="87.75" customHeight="1">
+    <row r="71" spans="1:38" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="74">
         <v>64</v>
       </c>
@@ -13835,11 +13842,11 @@
         <v>862</v>
       </c>
       <c r="AK71" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL71" s="170"/>
     </row>
-    <row r="72" spans="1:38" ht="87.75" customHeight="1">
+    <row r="72" spans="1:38" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="74">
         <v>65</v>
       </c>
@@ -13957,11 +13964,11 @@
         <v>800</v>
       </c>
       <c r="AK72" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL72" s="170"/>
     </row>
-    <row r="73" spans="1:38" ht="87.75" customHeight="1">
+    <row r="73" spans="1:38" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="74">
         <v>66</v>
       </c>
@@ -14079,11 +14086,11 @@
         <v>915</v>
       </c>
       <c r="AK73" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL73" s="170"/>
     </row>
-    <row r="74" spans="1:38" ht="87.75" customHeight="1">
+    <row r="74" spans="1:38" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="74">
         <v>67</v>
       </c>
@@ -14201,11 +14208,11 @@
         <v>886</v>
       </c>
       <c r="AK74" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL74" s="170"/>
     </row>
-    <row r="75" spans="1:38" ht="87.75" customHeight="1">
+    <row r="75" spans="1:38" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="74">
         <v>68</v>
       </c>
@@ -14323,17 +14330,12 @@
         <v>916</v>
       </c>
       <c r="AK75" s="87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL75" s="170"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="D4:D7"/>
     <mergeCell ref="AC4:AE4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="AF4:AH4"/>
@@ -14347,6 +14349,11 @@
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="F4:F7"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="D4:D7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H8:H75 K8:K75 N8:N75 Q8:Q75 T8:T75">
@@ -14379,14 +14386,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI66"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="AI4" sqref="AI4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.88671875" defaultRowHeight="22.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="6.88671875" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.88671875" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
@@ -14403,185 +14410,185 @@
     <col min="35" max="35" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="43" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A1" s="213" t="s">
+    <row r="1" spans="1:35" s="43" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="216" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="213"/>
-      <c r="C1" s="213"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="213"/>
-      <c r="F1" s="213"/>
-      <c r="G1" s="213"/>
-      <c r="H1" s="213"/>
-      <c r="I1" s="213"/>
-      <c r="J1" s="213"/>
-      <c r="K1" s="213"/>
-      <c r="L1" s="213"/>
-      <c r="M1" s="213"/>
-      <c r="N1" s="213"/>
-      <c r="O1" s="213"/>
-      <c r="P1" s="213"/>
-      <c r="Q1" s="213"/>
-      <c r="R1" s="213"/>
-      <c r="S1" s="213"/>
-      <c r="T1" s="213"/>
-      <c r="U1" s="213"/>
-      <c r="V1" s="213"/>
-      <c r="W1" s="213"/>
-      <c r="X1" s="213"/>
-      <c r="Y1" s="213"/>
-      <c r="Z1" s="213"/>
-      <c r="AA1" s="213"/>
-      <c r="AB1" s="213"/>
-      <c r="AC1" s="213"/>
-      <c r="AD1" s="213"/>
-      <c r="AE1" s="213"/>
-      <c r="AF1" s="213"/>
-      <c r="AG1" s="213"/>
-      <c r="AH1" s="213"/>
-      <c r="AI1" s="213"/>
+      <c r="B1" s="216"/>
+      <c r="C1" s="216"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="216"/>
+      <c r="F1" s="216"/>
+      <c r="G1" s="216"/>
+      <c r="H1" s="216"/>
+      <c r="I1" s="216"/>
+      <c r="J1" s="216"/>
+      <c r="K1" s="216"/>
+      <c r="L1" s="216"/>
+      <c r="M1" s="216"/>
+      <c r="N1" s="216"/>
+      <c r="O1" s="216"/>
+      <c r="P1" s="216"/>
+      <c r="Q1" s="216"/>
+      <c r="R1" s="216"/>
+      <c r="S1" s="216"/>
+      <c r="T1" s="216"/>
+      <c r="U1" s="216"/>
+      <c r="V1" s="216"/>
+      <c r="W1" s="216"/>
+      <c r="X1" s="216"/>
+      <c r="Y1" s="216"/>
+      <c r="Z1" s="216"/>
+      <c r="AA1" s="216"/>
+      <c r="AB1" s="216"/>
+      <c r="AC1" s="216"/>
+      <c r="AD1" s="216"/>
+      <c r="AE1" s="216"/>
+      <c r="AF1" s="216"/>
+      <c r="AG1" s="216"/>
+      <c r="AH1" s="216"/>
+      <c r="AI1" s="216"/>
     </row>
-    <row r="2" spans="1:35" s="43" customFormat="1" ht="66.75" customHeight="1">
-      <c r="A2" s="213" t="s">
+    <row r="2" spans="1:35" s="43" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="216" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="213"/>
-      <c r="C2" s="213"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="213"/>
-      <c r="F2" s="213"/>
-      <c r="G2" s="213"/>
-      <c r="H2" s="213"/>
-      <c r="I2" s="213"/>
-      <c r="J2" s="213"/>
-      <c r="K2" s="213"/>
-      <c r="L2" s="213"/>
-      <c r="M2" s="213"/>
-      <c r="N2" s="213"/>
-      <c r="O2" s="213"/>
-      <c r="P2" s="213"/>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="213"/>
-      <c r="S2" s="213"/>
-      <c r="T2" s="213"/>
-      <c r="U2" s="213"/>
-      <c r="V2" s="213"/>
-      <c r="W2" s="213"/>
-      <c r="X2" s="213"/>
-      <c r="Y2" s="213"/>
-      <c r="Z2" s="213"/>
-      <c r="AA2" s="213"/>
-      <c r="AB2" s="213"/>
-      <c r="AC2" s="213"/>
-      <c r="AD2" s="213"/>
-      <c r="AE2" s="213"/>
-      <c r="AF2" s="213"/>
-      <c r="AG2" s="213"/>
-      <c r="AH2" s="213"/>
-      <c r="AI2" s="213"/>
+      <c r="B2" s="216"/>
+      <c r="C2" s="216"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="216"/>
+      <c r="F2" s="216"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="216"/>
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="216"/>
+      <c r="N2" s="216"/>
+      <c r="O2" s="216"/>
+      <c r="P2" s="216"/>
+      <c r="Q2" s="216"/>
+      <c r="R2" s="216"/>
+      <c r="S2" s="216"/>
+      <c r="T2" s="216"/>
+      <c r="U2" s="216"/>
+      <c r="V2" s="216"/>
+      <c r="W2" s="216"/>
+      <c r="X2" s="216"/>
+      <c r="Y2" s="216"/>
+      <c r="Z2" s="216"/>
+      <c r="AA2" s="216"/>
+      <c r="AB2" s="216"/>
+      <c r="AC2" s="216"/>
+      <c r="AD2" s="216"/>
+      <c r="AE2" s="216"/>
+      <c r="AF2" s="216"/>
+      <c r="AG2" s="216"/>
+      <c r="AH2" s="216"/>
+      <c r="AI2" s="216"/>
     </row>
-    <row r="3" spans="1:35" s="43" customFormat="1" ht="66.75" customHeight="1">
-      <c r="A3" s="198" t="s">
+    <row r="3" spans="1:35" s="43" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="207" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="198"/>
-      <c r="C3" s="198"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="198"/>
-      <c r="F3" s="198"/>
-      <c r="G3" s="198"/>
-      <c r="H3" s="198"/>
-      <c r="I3" s="198"/>
-      <c r="J3" s="198"/>
-      <c r="K3" s="198"/>
-      <c r="L3" s="198"/>
-      <c r="M3" s="198"/>
-      <c r="N3" s="198"/>
-      <c r="O3" s="198"/>
-      <c r="P3" s="198"/>
-      <c r="Q3" s="198"/>
-      <c r="R3" s="198"/>
-      <c r="S3" s="198"/>
-      <c r="T3" s="198"/>
-      <c r="U3" s="198"/>
-      <c r="V3" s="198"/>
-      <c r="W3" s="198"/>
-      <c r="X3" s="198"/>
-      <c r="Y3" s="198"/>
-      <c r="Z3" s="198"/>
-      <c r="AA3" s="198"/>
-      <c r="AB3" s="198"/>
-      <c r="AC3" s="198"/>
-      <c r="AD3" s="198"/>
-      <c r="AE3" s="198"/>
-      <c r="AF3" s="198"/>
-      <c r="AG3" s="198"/>
-      <c r="AH3" s="198"/>
-      <c r="AI3" s="198"/>
+      <c r="B3" s="207"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="207"/>
+      <c r="H3" s="207"/>
+      <c r="I3" s="207"/>
+      <c r="J3" s="207"/>
+      <c r="K3" s="207"/>
+      <c r="L3" s="207"/>
+      <c r="M3" s="207"/>
+      <c r="N3" s="207"/>
+      <c r="O3" s="207"/>
+      <c r="P3" s="207"/>
+      <c r="Q3" s="207"/>
+      <c r="R3" s="207"/>
+      <c r="S3" s="207"/>
+      <c r="T3" s="207"/>
+      <c r="U3" s="207"/>
+      <c r="V3" s="207"/>
+      <c r="W3" s="207"/>
+      <c r="X3" s="207"/>
+      <c r="Y3" s="207"/>
+      <c r="Z3" s="207"/>
+      <c r="AA3" s="207"/>
+      <c r="AB3" s="207"/>
+      <c r="AC3" s="207"/>
+      <c r="AD3" s="207"/>
+      <c r="AE3" s="207"/>
+      <c r="AF3" s="207"/>
+      <c r="AG3" s="207"/>
+      <c r="AH3" s="207"/>
+      <c r="AI3" s="207"/>
     </row>
-    <row r="4" spans="1:35" ht="162.75" customHeight="1">
-      <c r="A4" s="211" t="s">
+    <row r="4" spans="1:35" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="211" t="s">
+      <c r="B4" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="211" t="s">
+      <c r="C4" s="199" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="211" t="s">
+      <c r="D4" s="199" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="212" t="s">
+      <c r="E4" s="201" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="212" t="s">
+      <c r="F4" s="201" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="214" t="s">
+      <c r="H4" s="217" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="214"/>
-      <c r="J4" s="214"/>
-      <c r="K4" s="214" t="s">
+      <c r="I4" s="217"/>
+      <c r="J4" s="217"/>
+      <c r="K4" s="217" t="s">
         <v>63</v>
       </c>
-      <c r="L4" s="214"/>
-      <c r="M4" s="214"/>
-      <c r="N4" s="214" t="s">
+      <c r="L4" s="217"/>
+      <c r="M4" s="217"/>
+      <c r="N4" s="217" t="s">
         <v>61</v>
       </c>
-      <c r="O4" s="214"/>
-      <c r="P4" s="214"/>
-      <c r="Q4" s="215" t="s">
+      <c r="O4" s="217"/>
+      <c r="P4" s="217"/>
+      <c r="Q4" s="213" t="s">
         <v>62</v>
       </c>
-      <c r="R4" s="216"/>
-      <c r="S4" s="217"/>
-      <c r="T4" s="215" t="s">
+      <c r="R4" s="214"/>
+      <c r="S4" s="215"/>
+      <c r="T4" s="213" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="216"/>
-      <c r="V4" s="217"/>
-      <c r="W4" s="215" t="s">
+      <c r="U4" s="214"/>
+      <c r="V4" s="215"/>
+      <c r="W4" s="213" t="s">
         <v>40</v>
       </c>
-      <c r="X4" s="216"/>
-      <c r="Y4" s="217"/>
-      <c r="Z4" s="214" t="s">
+      <c r="X4" s="214"/>
+      <c r="Y4" s="215"/>
+      <c r="Z4" s="217" t="s">
         <v>65</v>
       </c>
-      <c r="AA4" s="214"/>
-      <c r="AB4" s="214"/>
-      <c r="AC4" s="214" t="s">
+      <c r="AA4" s="217"/>
+      <c r="AB4" s="217"/>
+      <c r="AC4" s="217" t="s">
         <v>64</v>
       </c>
-      <c r="AD4" s="214"/>
-      <c r="AE4" s="214"/>
+      <c r="AD4" s="217"/>
+      <c r="AE4" s="217"/>
       <c r="AF4" s="145" t="s">
         <v>41</v>
       </c>
@@ -14595,13 +14602,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="47.25" customHeight="1">
-      <c r="A5" s="211"/>
-      <c r="B5" s="211"/>
-      <c r="C5" s="211"/>
-      <c r="D5" s="211"/>
-      <c r="E5" s="212"/>
-      <c r="F5" s="212"/>
+    <row r="5" spans="1:35" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="199"/>
+      <c r="B5" s="199"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="201"/>
       <c r="G5" s="24"/>
       <c r="H5" s="38" t="s">
         <v>7</v>
@@ -14680,13 +14687,13 @@
       <c r="AH5" s="24"/>
       <c r="AI5" s="24"/>
     </row>
-    <row r="6" spans="1:35" ht="47.25" customHeight="1">
-      <c r="A6" s="211"/>
-      <c r="B6" s="211"/>
-      <c r="C6" s="211"/>
-      <c r="D6" s="211"/>
-      <c r="E6" s="212"/>
-      <c r="F6" s="212"/>
+    <row r="6" spans="1:35" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="199"/>
+      <c r="B6" s="199"/>
+      <c r="C6" s="199"/>
+      <c r="D6" s="199"/>
+      <c r="E6" s="201"/>
+      <c r="F6" s="201"/>
       <c r="G6" s="25" t="s">
         <v>2</v>
       </c>
@@ -14780,13 +14787,13 @@
       <c r="AH6" s="49"/>
       <c r="AI6" s="36"/>
     </row>
-    <row r="7" spans="1:35" ht="47.25" customHeight="1">
-      <c r="A7" s="199"/>
-      <c r="B7" s="199"/>
-      <c r="C7" s="199"/>
-      <c r="D7" s="199"/>
-      <c r="E7" s="205"/>
-      <c r="F7" s="205"/>
+    <row r="7" spans="1:35" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="200"/>
+      <c r="B7" s="200"/>
+      <c r="C7" s="200"/>
+      <c r="D7" s="200"/>
+      <c r="E7" s="202"/>
+      <c r="F7" s="202"/>
       <c r="G7" s="26" t="s">
         <v>3</v>
       </c>
@@ -14853,7 +14860,7 @@
       <c r="AH7" s="41"/>
       <c r="AI7" s="37"/>
     </row>
-    <row r="8" spans="1:35" ht="95.25" customHeight="1">
+    <row r="8" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="74">
         <v>1</v>
       </c>
@@ -14961,11 +14968,11 @@
         <v>968</v>
       </c>
       <c r="AH8" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI8" s="88"/>
     </row>
-    <row r="9" spans="1:35" ht="95.25" customHeight="1">
+    <row r="9" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="74">
         <v>2</v>
       </c>
@@ -15073,11 +15080,11 @@
         <v>912</v>
       </c>
       <c r="AH9" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI9" s="88"/>
     </row>
-    <row r="10" spans="1:35" ht="95.25" customHeight="1">
+    <row r="10" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="74">
         <v>3</v>
       </c>
@@ -15185,11 +15192,11 @@
         <v>1008</v>
       </c>
       <c r="AH10" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI10" s="88"/>
     </row>
-    <row r="11" spans="1:35" ht="95.25" customHeight="1">
+    <row r="11" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="74">
         <v>4</v>
       </c>
@@ -15297,11 +15304,11 @@
         <v>886</v>
       </c>
       <c r="AH11" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI11" s="88"/>
     </row>
-    <row r="12" spans="1:35" ht="95.25" customHeight="1">
+    <row r="12" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="74">
         <v>5</v>
       </c>
@@ -15409,11 +15416,11 @@
         <v>1028</v>
       </c>
       <c r="AH12" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI12" s="88"/>
     </row>
-    <row r="13" spans="1:35" ht="95.25" customHeight="1">
+    <row r="13" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="74">
         <v>6</v>
       </c>
@@ -15521,11 +15528,11 @@
         <v>991</v>
       </c>
       <c r="AH13" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI13" s="88"/>
     </row>
-    <row r="14" spans="1:35" ht="95.25" customHeight="1">
+    <row r="14" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="74">
         <v>7</v>
       </c>
@@ -15633,11 +15640,11 @@
         <v>948</v>
       </c>
       <c r="AH14" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI14" s="88"/>
     </row>
-    <row r="15" spans="1:35" ht="95.25" customHeight="1">
+    <row r="15" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="74">
         <v>8</v>
       </c>
@@ -15745,11 +15752,11 @@
         <v>1067</v>
       </c>
       <c r="AH15" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI15" s="88"/>
     </row>
-    <row r="16" spans="1:35" ht="95.25" customHeight="1">
+    <row r="16" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="74">
         <v>9</v>
       </c>
@@ -15857,11 +15864,11 @@
         <v>987</v>
       </c>
       <c r="AH16" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI16" s="88"/>
     </row>
-    <row r="17" spans="1:35" ht="95.25" customHeight="1">
+    <row r="17" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="74">
         <v>10</v>
       </c>
@@ -15969,11 +15976,11 @@
         <v>1002</v>
       </c>
       <c r="AH17" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI17" s="88"/>
     </row>
-    <row r="18" spans="1:35" ht="95.25" customHeight="1">
+    <row r="18" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="74">
         <v>11</v>
       </c>
@@ -16081,11 +16088,11 @@
         <v>872</v>
       </c>
       <c r="AH18" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI18" s="88"/>
     </row>
-    <row r="19" spans="1:35" ht="95.25" customHeight="1">
+    <row r="19" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="74">
         <v>12</v>
       </c>
@@ -16193,11 +16200,11 @@
         <v>953</v>
       </c>
       <c r="AH19" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI19" s="88"/>
     </row>
-    <row r="20" spans="1:35" ht="95.25" customHeight="1">
+    <row r="20" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="74">
         <v>13</v>
       </c>
@@ -16305,11 +16312,11 @@
         <v>985</v>
       </c>
       <c r="AH20" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI20" s="88"/>
     </row>
-    <row r="21" spans="1:35" ht="95.25" customHeight="1">
+    <row r="21" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="74">
         <v>14</v>
       </c>
@@ -16417,11 +16424,11 @@
         <v>1094</v>
       </c>
       <c r="AH21" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI21" s="88"/>
     </row>
-    <row r="22" spans="1:35" ht="95.25" customHeight="1">
+    <row r="22" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="74">
         <v>15</v>
       </c>
@@ -16529,11 +16536,11 @@
         <v>840</v>
       </c>
       <c r="AH22" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI22" s="88"/>
     </row>
-    <row r="23" spans="1:35" ht="95.25" customHeight="1">
+    <row r="23" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="74">
         <v>16</v>
       </c>
@@ -16641,11 +16648,11 @@
         <v>981</v>
       </c>
       <c r="AH23" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI23" s="88"/>
     </row>
-    <row r="24" spans="1:35" ht="95.25" customHeight="1">
+    <row r="24" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="74">
         <v>17</v>
       </c>
@@ -16753,11 +16760,11 @@
         <v>966</v>
       </c>
       <c r="AH24" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI24" s="88"/>
     </row>
-    <row r="25" spans="1:35" ht="95.25" customHeight="1">
+    <row r="25" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="74">
         <v>18</v>
       </c>
@@ -16865,11 +16872,11 @@
         <v>1008</v>
       </c>
       <c r="AH25" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI25" s="88"/>
     </row>
-    <row r="26" spans="1:35" ht="95.25" customHeight="1">
+    <row r="26" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="74">
         <v>19</v>
       </c>
@@ -16977,11 +16984,11 @@
         <v>952</v>
       </c>
       <c r="AH26" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI26" s="88"/>
     </row>
-    <row r="27" spans="1:35" ht="95.25" customHeight="1">
+    <row r="27" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="74">
         <v>20</v>
       </c>
@@ -17089,11 +17096,11 @@
         <v>963</v>
       </c>
       <c r="AH27" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI27" s="88"/>
     </row>
-    <row r="28" spans="1:35" ht="95.25" customHeight="1">
+    <row r="28" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="74">
         <v>21</v>
       </c>
@@ -17201,11 +17208,11 @@
         <v>948</v>
       </c>
       <c r="AH28" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI28" s="88"/>
     </row>
-    <row r="29" spans="1:35" ht="95.25" customHeight="1">
+    <row r="29" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="74">
         <v>22</v>
       </c>
@@ -17313,11 +17320,11 @@
         <v>966</v>
       </c>
       <c r="AH29" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI29" s="88"/>
     </row>
-    <row r="30" spans="1:35" ht="95.25" customHeight="1">
+    <row r="30" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="74">
         <v>23</v>
       </c>
@@ -17425,11 +17432,11 @@
         <v>1003</v>
       </c>
       <c r="AH30" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI30" s="88"/>
     </row>
-    <row r="31" spans="1:35" ht="95.25" customHeight="1">
+    <row r="31" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="74">
         <v>24</v>
       </c>
@@ -17537,11 +17544,11 @@
         <v>971</v>
       </c>
       <c r="AH31" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI31" s="88"/>
     </row>
-    <row r="32" spans="1:35" ht="95.25" customHeight="1">
+    <row r="32" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="74">
         <v>25</v>
       </c>
@@ -17649,11 +17656,11 @@
         <v>964</v>
       </c>
       <c r="AH32" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI32" s="88"/>
     </row>
-    <row r="33" spans="1:35" ht="95.25" customHeight="1">
+    <row r="33" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="74">
         <v>26</v>
       </c>
@@ -17761,11 +17768,11 @@
         <v>912</v>
       </c>
       <c r="AH33" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI33" s="88"/>
     </row>
-    <row r="34" spans="1:35" ht="95.25" customHeight="1">
+    <row r="34" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="74">
         <v>27</v>
       </c>
@@ -17873,11 +17880,11 @@
         <v>852</v>
       </c>
       <c r="AH34" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI34" s="88"/>
     </row>
-    <row r="35" spans="1:35" ht="95.25" customHeight="1">
+    <row r="35" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="74">
         <v>28</v>
       </c>
@@ -17985,11 +17992,11 @@
         <v>926</v>
       </c>
       <c r="AH35" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI35" s="88"/>
     </row>
-    <row r="36" spans="1:35" ht="95.25" customHeight="1">
+    <row r="36" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="74">
         <v>29</v>
       </c>
@@ -18097,11 +18104,11 @@
         <v>948</v>
       </c>
       <c r="AH36" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI36" s="88"/>
     </row>
-    <row r="37" spans="1:35" ht="95.25" customHeight="1">
+    <row r="37" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="74">
         <v>30</v>
       </c>
@@ -18209,11 +18216,11 @@
         <v>1042</v>
       </c>
       <c r="AH37" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI37" s="88"/>
     </row>
-    <row r="38" spans="1:35" ht="95.25" customHeight="1">
+    <row r="38" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="74">
         <v>31</v>
       </c>
@@ -18321,11 +18328,11 @@
         <v>942</v>
       </c>
       <c r="AH38" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI38" s="88"/>
     </row>
-    <row r="39" spans="1:35" ht="95.25" customHeight="1">
+    <row r="39" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="74">
         <v>32</v>
       </c>
@@ -18433,11 +18440,11 @@
         <v>986</v>
       </c>
       <c r="AH39" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI39" s="88"/>
     </row>
-    <row r="40" spans="1:35" ht="95.25" customHeight="1">
+    <row r="40" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="74">
         <v>33</v>
       </c>
@@ -18545,11 +18552,11 @@
         <v>971</v>
       </c>
       <c r="AH40" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI40" s="88"/>
     </row>
-    <row r="41" spans="1:35" ht="95.25" customHeight="1">
+    <row r="41" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="74">
         <v>34</v>
       </c>
@@ -18657,11 +18664,11 @@
         <v>881</v>
       </c>
       <c r="AH41" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI41" s="88"/>
     </row>
-    <row r="42" spans="1:35" ht="95.25" customHeight="1">
+    <row r="42" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="74">
         <v>35</v>
       </c>
@@ -18769,11 +18776,11 @@
         <v>1014</v>
       </c>
       <c r="AH42" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI42" s="88"/>
     </row>
-    <row r="43" spans="1:35" ht="95.25" customHeight="1">
+    <row r="43" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="74">
         <v>36</v>
       </c>
@@ -18881,11 +18888,11 @@
         <v>946</v>
       </c>
       <c r="AH43" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI43" s="88"/>
     </row>
-    <row r="44" spans="1:35" ht="95.25" customHeight="1">
+    <row r="44" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="74">
         <v>37</v>
       </c>
@@ -18993,11 +19000,11 @@
         <v>1002</v>
       </c>
       <c r="AH44" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI44" s="88"/>
     </row>
-    <row r="45" spans="1:35" ht="95.25" customHeight="1">
+    <row r="45" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="74">
         <v>38</v>
       </c>
@@ -19105,11 +19112,11 @@
         <v>1003</v>
       </c>
       <c r="AH45" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI45" s="88"/>
     </row>
-    <row r="46" spans="1:35" ht="95.25" customHeight="1">
+    <row r="46" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="74">
         <v>39</v>
       </c>
@@ -19217,11 +19224,11 @@
         <v>998</v>
       </c>
       <c r="AH46" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI46" s="88"/>
     </row>
-    <row r="47" spans="1:35" ht="95.25" customHeight="1">
+    <row r="47" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="74">
         <v>40</v>
       </c>
@@ -19329,11 +19336,11 @@
         <v>919</v>
       </c>
       <c r="AH47" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI47" s="88"/>
     </row>
-    <row r="48" spans="1:35" ht="95.25" customHeight="1">
+    <row r="48" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="74">
         <v>41</v>
       </c>
@@ -19441,11 +19448,11 @@
         <v>952</v>
       </c>
       <c r="AH48" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI48" s="88"/>
     </row>
-    <row r="49" spans="1:35" ht="95.25" customHeight="1">
+    <row r="49" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="74">
         <v>42</v>
       </c>
@@ -19553,11 +19560,11 @@
         <v>822</v>
       </c>
       <c r="AH49" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI49" s="88"/>
     </row>
-    <row r="50" spans="1:35" ht="95.25" customHeight="1">
+    <row r="50" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="74">
         <v>43</v>
       </c>
@@ -19665,11 +19672,11 @@
         <v>927</v>
       </c>
       <c r="AH50" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI50" s="88"/>
     </row>
-    <row r="51" spans="1:35" ht="95.25" customHeight="1">
+    <row r="51" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="74">
         <v>44</v>
       </c>
@@ -19777,11 +19784,11 @@
         <v>923</v>
       </c>
       <c r="AH51" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI51" s="88"/>
     </row>
-    <row r="52" spans="1:35" ht="95.25" customHeight="1">
+    <row r="52" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="74">
         <v>45</v>
       </c>
@@ -19889,11 +19896,11 @@
         <v>852</v>
       </c>
       <c r="AH52" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI52" s="88"/>
     </row>
-    <row r="53" spans="1:35" ht="95.25" customHeight="1">
+    <row r="53" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="74">
         <v>46</v>
       </c>
@@ -19974,17 +19981,17 @@
         <v>145</v>
       </c>
       <c r="Z53" s="76" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AA53" s="76" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AB53" s="77">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC53" s="76" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AD53" s="76">
         <v>20</v>
@@ -20001,11 +20008,11 @@
         <v>822</v>
       </c>
       <c r="AH53" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI53" s="88"/>
     </row>
-    <row r="54" spans="1:35" ht="95.25" customHeight="1">
+    <row r="54" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="74">
         <v>47</v>
       </c>
@@ -20026,20 +20033,20 @@
       </c>
       <c r="G54" s="122"/>
       <c r="H54" s="76" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I54" s="76" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="J54" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K54" s="76" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="L54" s="76" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="M54" s="77">
         <f t="shared" si="1"/>
@@ -20056,7 +20063,7 @@
         <v>48</v>
       </c>
       <c r="Q54" s="76" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="R54" s="76">
         <v>24</v>
@@ -20066,40 +20073,40 @@
         <v>24</v>
       </c>
       <c r="T54" s="74" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="U54" s="74" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="V54" s="77">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W54" s="76" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="X54" s="76" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="Y54" s="77">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z54" s="76" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AA54" s="76" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AB54" s="77">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC54" s="76" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AD54" s="76" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AE54" s="77">
         <f t="shared" si="7"/>
@@ -20113,11 +20120,11 @@
         <v>72</v>
       </c>
       <c r="AH54" s="147" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AI54" s="88"/>
     </row>
-    <row r="55" spans="1:35" ht="95.25" customHeight="1">
+    <row r="55" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="74">
         <v>48</v>
       </c>
@@ -20225,11 +20232,11 @@
         <v>943</v>
       </c>
       <c r="AH55" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI55" s="88"/>
     </row>
-    <row r="56" spans="1:35" ht="95.25" customHeight="1">
+    <row r="56" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="74">
         <v>49</v>
       </c>
@@ -20337,11 +20344,11 @@
         <v>901</v>
       </c>
       <c r="AH56" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI56" s="88"/>
     </row>
-    <row r="57" spans="1:35" ht="95.25" customHeight="1">
+    <row r="57" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="74">
         <v>50</v>
       </c>
@@ -20449,11 +20456,11 @@
         <v>906</v>
       </c>
       <c r="AH57" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI57" s="88"/>
     </row>
-    <row r="58" spans="1:35" ht="95.25" customHeight="1">
+    <row r="58" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="74">
         <v>51</v>
       </c>
@@ -20561,11 +20568,11 @@
         <v>942</v>
       </c>
       <c r="AH58" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI58" s="88"/>
     </row>
-    <row r="59" spans="1:35" ht="95.25" customHeight="1">
+    <row r="59" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="74">
         <v>52</v>
       </c>
@@ -20673,11 +20680,11 @@
         <v>959</v>
       </c>
       <c r="AH59" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI59" s="88"/>
     </row>
-    <row r="60" spans="1:35" ht="95.25" customHeight="1">
+    <row r="60" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="74">
         <v>53</v>
       </c>
@@ -20785,11 +20792,11 @@
         <v>908</v>
       </c>
       <c r="AH60" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI60" s="88"/>
     </row>
-    <row r="61" spans="1:35" ht="95.25" customHeight="1">
+    <row r="61" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="74">
         <v>54</v>
       </c>
@@ -20897,11 +20904,11 @@
         <v>914</v>
       </c>
       <c r="AH61" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI61" s="88"/>
     </row>
-    <row r="62" spans="1:35" ht="95.25" customHeight="1">
+    <row r="62" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="74">
         <v>55</v>
       </c>
@@ -21009,11 +21016,11 @@
         <v>967</v>
       </c>
       <c r="AH62" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI62" s="88"/>
     </row>
-    <row r="63" spans="1:35" ht="95.25" customHeight="1">
+    <row r="63" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="74">
         <v>56</v>
       </c>
@@ -21121,11 +21128,11 @@
         <v>940</v>
       </c>
       <c r="AH63" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI63" s="128"/>
     </row>
-    <row r="64" spans="1:35" ht="95.25" customHeight="1">
+    <row r="64" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="74">
         <v>57</v>
       </c>
@@ -21233,11 +21240,11 @@
         <v>975</v>
       </c>
       <c r="AH64" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI64" s="88"/>
     </row>
-    <row r="65" spans="1:35" ht="95.25" customHeight="1">
+    <row r="65" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="74">
         <v>58</v>
       </c>
@@ -21345,11 +21352,11 @@
         <v>942</v>
       </c>
       <c r="AH65" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI65" s="81"/>
     </row>
-    <row r="66" spans="1:35" ht="95.25" customHeight="1">
+    <row r="66" spans="1:35" ht="95.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="74">
         <v>59</v>
       </c>
@@ -21457,12 +21464,13 @@
         <v>715</v>
       </c>
       <c r="AH66" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AI66" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Q4:S4"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="A1:AI1"/>
     <mergeCell ref="A2:AI2"/>
@@ -21479,7 +21487,6 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
   </mergeCells>
   <conditionalFormatting sqref="H8:H66 Q8:Q66 N8:N66 T8:T66 W8:W66 I66 K8:K66">
     <cfRule type="cellIs" dxfId="54" priority="16" stopIfTrue="1" operator="lessThan">
@@ -21501,14 +21508,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL75"/>
   <sheetViews>
-    <sheetView topLeftCell="F82" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AI4" sqref="AI4"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.44140625" defaultRowHeight="22.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="6.44140625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.44140625" style="16" customWidth="1"/>
     <col min="2" max="2" width="27.88671875" style="16" customWidth="1"/>
@@ -21534,199 +21541,199 @@
     <col min="40" max="16384" width="6.44140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="52.5" customHeight="1">
-      <c r="A1" s="213" t="s">
+    <row r="1" spans="1:38" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="216" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="213"/>
-      <c r="C1" s="213"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="213"/>
-      <c r="F1" s="213"/>
-      <c r="G1" s="213"/>
-      <c r="H1" s="213"/>
-      <c r="I1" s="213"/>
-      <c r="J1" s="213"/>
-      <c r="K1" s="213"/>
-      <c r="L1" s="213"/>
-      <c r="M1" s="213"/>
-      <c r="N1" s="213"/>
-      <c r="O1" s="213"/>
-      <c r="P1" s="213"/>
-      <c r="Q1" s="213"/>
-      <c r="R1" s="213"/>
-      <c r="S1" s="213"/>
-      <c r="T1" s="213"/>
-      <c r="U1" s="213"/>
-      <c r="V1" s="213"/>
-      <c r="W1" s="213"/>
-      <c r="X1" s="213"/>
-      <c r="Y1" s="213"/>
-      <c r="Z1" s="213"/>
-      <c r="AA1" s="213"/>
-      <c r="AB1" s="213"/>
-      <c r="AC1" s="213"/>
-      <c r="AD1" s="213"/>
-      <c r="AE1" s="213"/>
-      <c r="AF1" s="213"/>
-      <c r="AG1" s="213"/>
-      <c r="AH1" s="213"/>
-      <c r="AI1" s="213"/>
-      <c r="AJ1" s="213"/>
-      <c r="AK1" s="213"/>
-      <c r="AL1" s="213"/>
+      <c r="B1" s="216"/>
+      <c r="C1" s="216"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="216"/>
+      <c r="F1" s="216"/>
+      <c r="G1" s="216"/>
+      <c r="H1" s="216"/>
+      <c r="I1" s="216"/>
+      <c r="J1" s="216"/>
+      <c r="K1" s="216"/>
+      <c r="L1" s="216"/>
+      <c r="M1" s="216"/>
+      <c r="N1" s="216"/>
+      <c r="O1" s="216"/>
+      <c r="P1" s="216"/>
+      <c r="Q1" s="216"/>
+      <c r="R1" s="216"/>
+      <c r="S1" s="216"/>
+      <c r="T1" s="216"/>
+      <c r="U1" s="216"/>
+      <c r="V1" s="216"/>
+      <c r="W1" s="216"/>
+      <c r="X1" s="216"/>
+      <c r="Y1" s="216"/>
+      <c r="Z1" s="216"/>
+      <c r="AA1" s="216"/>
+      <c r="AB1" s="216"/>
+      <c r="AC1" s="216"/>
+      <c r="AD1" s="216"/>
+      <c r="AE1" s="216"/>
+      <c r="AF1" s="216"/>
+      <c r="AG1" s="216"/>
+      <c r="AH1" s="216"/>
+      <c r="AI1" s="216"/>
+      <c r="AJ1" s="216"/>
+      <c r="AK1" s="216"/>
+      <c r="AL1" s="216"/>
     </row>
-    <row r="2" spans="1:38" ht="52.5" customHeight="1">
-      <c r="A2" s="213" t="s">
+    <row r="2" spans="1:38" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="216" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="213"/>
-      <c r="C2" s="213"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="213"/>
-      <c r="F2" s="213"/>
-      <c r="G2" s="213"/>
-      <c r="H2" s="213"/>
-      <c r="I2" s="213"/>
-      <c r="J2" s="213"/>
-      <c r="K2" s="213"/>
-      <c r="L2" s="213"/>
-      <c r="M2" s="213"/>
-      <c r="N2" s="213"/>
-      <c r="O2" s="213"/>
-      <c r="P2" s="213"/>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="213"/>
-      <c r="S2" s="213"/>
-      <c r="T2" s="213"/>
-      <c r="U2" s="213"/>
-      <c r="V2" s="213"/>
-      <c r="W2" s="213"/>
-      <c r="X2" s="213"/>
-      <c r="Y2" s="213"/>
-      <c r="Z2" s="213"/>
-      <c r="AA2" s="213"/>
-      <c r="AB2" s="213"/>
-      <c r="AC2" s="213"/>
-      <c r="AD2" s="213"/>
-      <c r="AE2" s="213"/>
-      <c r="AF2" s="213"/>
-      <c r="AG2" s="213"/>
-      <c r="AH2" s="213"/>
-      <c r="AI2" s="213"/>
-      <c r="AJ2" s="213"/>
-      <c r="AK2" s="213"/>
-      <c r="AL2" s="213"/>
+      <c r="B2" s="216"/>
+      <c r="C2" s="216"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="216"/>
+      <c r="F2" s="216"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="216"/>
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="216"/>
+      <c r="N2" s="216"/>
+      <c r="O2" s="216"/>
+      <c r="P2" s="216"/>
+      <c r="Q2" s="216"/>
+      <c r="R2" s="216"/>
+      <c r="S2" s="216"/>
+      <c r="T2" s="216"/>
+      <c r="U2" s="216"/>
+      <c r="V2" s="216"/>
+      <c r="W2" s="216"/>
+      <c r="X2" s="216"/>
+      <c r="Y2" s="216"/>
+      <c r="Z2" s="216"/>
+      <c r="AA2" s="216"/>
+      <c r="AB2" s="216"/>
+      <c r="AC2" s="216"/>
+      <c r="AD2" s="216"/>
+      <c r="AE2" s="216"/>
+      <c r="AF2" s="216"/>
+      <c r="AG2" s="216"/>
+      <c r="AH2" s="216"/>
+      <c r="AI2" s="216"/>
+      <c r="AJ2" s="216"/>
+      <c r="AK2" s="216"/>
+      <c r="AL2" s="216"/>
     </row>
-    <row r="3" spans="1:38" ht="52.5" customHeight="1">
-      <c r="A3" s="198" t="s">
+    <row r="3" spans="1:38" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="207" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="198"/>
-      <c r="C3" s="198"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="198"/>
-      <c r="F3" s="198"/>
-      <c r="G3" s="198"/>
-      <c r="H3" s="198"/>
-      <c r="I3" s="198"/>
-      <c r="J3" s="198"/>
-      <c r="K3" s="198"/>
-      <c r="L3" s="198"/>
-      <c r="M3" s="198"/>
-      <c r="N3" s="198"/>
-      <c r="O3" s="198"/>
-      <c r="P3" s="198"/>
-      <c r="Q3" s="198"/>
-      <c r="R3" s="198"/>
-      <c r="S3" s="198"/>
-      <c r="T3" s="198"/>
-      <c r="U3" s="198"/>
-      <c r="V3" s="198"/>
-      <c r="W3" s="198"/>
-      <c r="X3" s="198"/>
-      <c r="Y3" s="198"/>
-      <c r="Z3" s="198"/>
-      <c r="AA3" s="198"/>
-      <c r="AB3" s="198"/>
-      <c r="AC3" s="198"/>
-      <c r="AD3" s="198"/>
-      <c r="AE3" s="198"/>
-      <c r="AF3" s="198"/>
-      <c r="AG3" s="198"/>
-      <c r="AH3" s="198"/>
-      <c r="AI3" s="198"/>
-      <c r="AJ3" s="198"/>
-      <c r="AK3" s="198"/>
-      <c r="AL3" s="198"/>
+      <c r="B3" s="207"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="207"/>
+      <c r="H3" s="207"/>
+      <c r="I3" s="207"/>
+      <c r="J3" s="207"/>
+      <c r="K3" s="207"/>
+      <c r="L3" s="207"/>
+      <c r="M3" s="207"/>
+      <c r="N3" s="207"/>
+      <c r="O3" s="207"/>
+      <c r="P3" s="207"/>
+      <c r="Q3" s="207"/>
+      <c r="R3" s="207"/>
+      <c r="S3" s="207"/>
+      <c r="T3" s="207"/>
+      <c r="U3" s="207"/>
+      <c r="V3" s="207"/>
+      <c r="W3" s="207"/>
+      <c r="X3" s="207"/>
+      <c r="Y3" s="207"/>
+      <c r="Z3" s="207"/>
+      <c r="AA3" s="207"/>
+      <c r="AB3" s="207"/>
+      <c r="AC3" s="207"/>
+      <c r="AD3" s="207"/>
+      <c r="AE3" s="207"/>
+      <c r="AF3" s="207"/>
+      <c r="AG3" s="207"/>
+      <c r="AH3" s="207"/>
+      <c r="AI3" s="207"/>
+      <c r="AJ3" s="207"/>
+      <c r="AK3" s="207"/>
+      <c r="AL3" s="207"/>
     </row>
-    <row r="4" spans="1:38" ht="157.5" customHeight="1">
-      <c r="A4" s="211" t="s">
+    <row r="4" spans="1:38" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="211" t="s">
+      <c r="B4" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="211" t="s">
+      <c r="C4" s="199" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="211" t="s">
+      <c r="D4" s="199" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="212" t="s">
+      <c r="E4" s="201" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="212" t="s">
+      <c r="F4" s="201" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="196" t="s">
+      <c r="H4" s="203" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="196"/>
-      <c r="J4" s="196"/>
-      <c r="K4" s="196" t="s">
+      <c r="I4" s="203"/>
+      <c r="J4" s="203"/>
+      <c r="K4" s="203" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="196"/>
-      <c r="M4" s="196"/>
-      <c r="N4" s="196" t="s">
+      <c r="L4" s="203"/>
+      <c r="M4" s="203"/>
+      <c r="N4" s="203" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="196"/>
-      <c r="P4" s="196"/>
-      <c r="Q4" s="196" t="s">
-        <v>730</v>
-      </c>
-      <c r="R4" s="196"/>
-      <c r="S4" s="196"/>
-      <c r="T4" s="196" t="s">
+      <c r="O4" s="203"/>
+      <c r="P4" s="203"/>
+      <c r="Q4" s="203" t="s">
+        <v>729</v>
+      </c>
+      <c r="R4" s="203"/>
+      <c r="S4" s="203"/>
+      <c r="T4" s="203" t="s">
         <v>44</v>
       </c>
-      <c r="U4" s="196"/>
-      <c r="V4" s="196"/>
-      <c r="W4" s="196" t="s">
+      <c r="U4" s="203"/>
+      <c r="V4" s="203"/>
+      <c r="W4" s="203" t="s">
         <v>71</v>
       </c>
-      <c r="X4" s="196"/>
-      <c r="Y4" s="196"/>
-      <c r="Z4" s="196" t="s">
+      <c r="X4" s="203"/>
+      <c r="Y4" s="203"/>
+      <c r="Z4" s="203" t="s">
         <v>72</v>
       </c>
-      <c r="AA4" s="196"/>
-      <c r="AB4" s="196"/>
-      <c r="AC4" s="196" t="s">
-        <v>742</v>
-      </c>
-      <c r="AD4" s="196"/>
-      <c r="AE4" s="196"/>
-      <c r="AF4" s="196" t="s">
+      <c r="AA4" s="203"/>
+      <c r="AB4" s="203"/>
+      <c r="AC4" s="203" t="s">
         <v>741</v>
       </c>
-      <c r="AG4" s="196"/>
-      <c r="AH4" s="196"/>
+      <c r="AD4" s="203"/>
+      <c r="AE4" s="203"/>
+      <c r="AF4" s="203" t="s">
+        <v>740</v>
+      </c>
+      <c r="AG4" s="203"/>
+      <c r="AH4" s="203"/>
       <c r="AI4" s="58" t="s">
         <v>41</v>
       </c>
@@ -21740,13 +21747,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="35.25" customHeight="1">
-      <c r="A5" s="211"/>
-      <c r="B5" s="211"/>
-      <c r="C5" s="211"/>
-      <c r="D5" s="211"/>
-      <c r="E5" s="212"/>
-      <c r="F5" s="212"/>
+    <row r="5" spans="1:38" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="199"/>
+      <c r="B5" s="199"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="201"/>
       <c r="G5" s="46"/>
       <c r="H5" s="11" t="s">
         <v>7</v>
@@ -21834,13 +21841,13 @@
       <c r="AK5" s="17"/>
       <c r="AL5" s="17"/>
     </row>
-    <row r="6" spans="1:38" ht="33" customHeight="1">
-      <c r="A6" s="211"/>
-      <c r="B6" s="211"/>
-      <c r="C6" s="211"/>
-      <c r="D6" s="211"/>
-      <c r="E6" s="212"/>
-      <c r="F6" s="212"/>
+    <row r="6" spans="1:38" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="199"/>
+      <c r="B6" s="199"/>
+      <c r="C6" s="199"/>
+      <c r="D6" s="199"/>
+      <c r="E6" s="201"/>
+      <c r="F6" s="201"/>
       <c r="G6" s="46" t="s">
         <v>2</v>
       </c>
@@ -21943,13 +21950,13 @@
       <c r="AK6" s="19"/>
       <c r="AL6" s="19"/>
     </row>
-    <row r="7" spans="1:38" ht="32.25" customHeight="1">
-      <c r="A7" s="199"/>
-      <c r="B7" s="199"/>
-      <c r="C7" s="199"/>
-      <c r="D7" s="199"/>
-      <c r="E7" s="205"/>
-      <c r="F7" s="205"/>
+    <row r="7" spans="1:38" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="200"/>
+      <c r="B7" s="200"/>
+      <c r="C7" s="200"/>
+      <c r="D7" s="200"/>
+      <c r="E7" s="202"/>
+      <c r="F7" s="202"/>
       <c r="G7" s="47" t="s">
         <v>3</v>
       </c>
@@ -22023,7 +22030,7 @@
       <c r="AK7" s="21"/>
       <c r="AL7" s="21"/>
     </row>
-    <row r="8" spans="1:38" ht="105" customHeight="1">
+    <row r="8" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="62">
         <v>1</v>
       </c>
@@ -22141,11 +22148,11 @@
         <v>811</v>
       </c>
       <c r="AK8" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL8" s="53"/>
     </row>
-    <row r="9" spans="1:38" ht="105" customHeight="1">
+    <row r="9" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="62">
         <v>2</v>
       </c>
@@ -22263,11 +22270,11 @@
         <v>802</v>
       </c>
       <c r="AK9" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL9" s="53"/>
     </row>
-    <row r="10" spans="1:38" ht="105" customHeight="1">
+    <row r="10" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="62">
         <v>3</v>
       </c>
@@ -22385,11 +22392,11 @@
         <v>709</v>
       </c>
       <c r="AK10" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL10" s="53"/>
     </row>
-    <row r="11" spans="1:38" ht="105" customHeight="1">
+    <row r="11" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="62">
         <v>4</v>
       </c>
@@ -22507,11 +22514,11 @@
         <v>737</v>
       </c>
       <c r="AK11" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL11" s="53"/>
     </row>
-    <row r="12" spans="1:38" ht="105" customHeight="1">
+    <row r="12" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="62">
         <v>5</v>
       </c>
@@ -22629,11 +22636,11 @@
         <v>780</v>
       </c>
       <c r="AK12" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL12" s="53"/>
     </row>
-    <row r="13" spans="1:38" ht="105" customHeight="1">
+    <row r="13" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="62">
         <v>6</v>
       </c>
@@ -22751,11 +22758,11 @@
         <v>796</v>
       </c>
       <c r="AK13" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL13" s="53"/>
     </row>
-    <row r="14" spans="1:38" ht="105" customHeight="1">
+    <row r="14" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="62">
         <v>7</v>
       </c>
@@ -22873,11 +22880,11 @@
         <v>829</v>
       </c>
       <c r="AK14" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL14" s="53"/>
     </row>
-    <row r="15" spans="1:38" ht="105" customHeight="1">
+    <row r="15" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="62">
         <v>8</v>
       </c>
@@ -22995,11 +23002,11 @@
         <v>714</v>
       </c>
       <c r="AK15" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL15" s="53"/>
     </row>
-    <row r="16" spans="1:38" ht="105" customHeight="1">
+    <row r="16" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="62">
         <v>9</v>
       </c>
@@ -23117,11 +23124,11 @@
         <v>759</v>
       </c>
       <c r="AK16" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL16" s="53"/>
     </row>
-    <row r="17" spans="1:38" ht="105" customHeight="1">
+    <row r="17" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="62">
         <v>10</v>
       </c>
@@ -23239,11 +23246,11 @@
         <v>684</v>
       </c>
       <c r="AK17" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL17" s="53"/>
     </row>
-    <row r="18" spans="1:38" ht="105" customHeight="1">
+    <row r="18" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="62">
         <v>11</v>
       </c>
@@ -23361,11 +23368,11 @@
         <v>853</v>
       </c>
       <c r="AK18" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL18" s="53"/>
     </row>
-    <row r="19" spans="1:38" ht="105" customHeight="1">
+    <row r="19" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="62">
         <v>12</v>
       </c>
@@ -23483,11 +23490,11 @@
         <v>910</v>
       </c>
       <c r="AK19" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL19" s="53"/>
     </row>
-    <row r="20" spans="1:38" ht="105" customHeight="1">
+    <row r="20" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="62">
         <v>13</v>
       </c>
@@ -23605,11 +23612,11 @@
         <v>814</v>
       </c>
       <c r="AK20" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL20" s="53"/>
     </row>
-    <row r="21" spans="1:38" ht="105" customHeight="1">
+    <row r="21" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="62">
         <v>14</v>
       </c>
@@ -23727,11 +23734,11 @@
         <v>770</v>
       </c>
       <c r="AK21" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL21" s="53"/>
     </row>
-    <row r="22" spans="1:38" ht="105" customHeight="1">
+    <row r="22" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="62">
         <v>15</v>
       </c>
@@ -23849,11 +23856,11 @@
         <v>782</v>
       </c>
       <c r="AK22" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL22" s="53"/>
     </row>
-    <row r="23" spans="1:38" ht="105" customHeight="1">
+    <row r="23" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="62">
         <v>16</v>
       </c>
@@ -23971,11 +23978,11 @@
         <v>752</v>
       </c>
       <c r="AK23" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL23" s="53"/>
     </row>
-    <row r="24" spans="1:38" ht="105" customHeight="1">
+    <row r="24" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="62">
         <v>17</v>
       </c>
@@ -24093,13 +24100,13 @@
         <v>598</v>
       </c>
       <c r="AK24" s="177" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AL24" s="186" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="105" customHeight="1">
+    <row r="25" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="62">
         <v>18</v>
       </c>
@@ -24217,11 +24224,11 @@
         <v>796</v>
       </c>
       <c r="AK25" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL25" s="53"/>
     </row>
-    <row r="26" spans="1:38" ht="105" customHeight="1">
+    <row r="26" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="62">
         <v>19</v>
       </c>
@@ -24322,7 +24329,7 @@
         <v>41</v>
       </c>
       <c r="AF26" s="173" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AG26" s="174">
         <v>14</v>
@@ -24339,13 +24346,13 @@
         <v>576</v>
       </c>
       <c r="AK26" s="177" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AL26" s="186" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="105" customHeight="1">
+    <row r="27" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="62">
         <v>20</v>
       </c>
@@ -24463,11 +24470,11 @@
         <v>751</v>
       </c>
       <c r="AK27" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL27" s="53"/>
     </row>
-    <row r="28" spans="1:38" ht="105" customHeight="1">
+    <row r="28" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="62">
         <v>21</v>
       </c>
@@ -24585,11 +24592,11 @@
         <v>681</v>
       </c>
       <c r="AK28" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL28" s="115"/>
     </row>
-    <row r="29" spans="1:38" ht="105" customHeight="1">
+    <row r="29" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="62">
         <v>22</v>
       </c>
@@ -24707,11 +24714,11 @@
         <v>755</v>
       </c>
       <c r="AK29" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL29" s="53"/>
     </row>
-    <row r="30" spans="1:38" ht="105" customHeight="1">
+    <row r="30" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="62">
         <v>23</v>
       </c>
@@ -24829,11 +24836,11 @@
         <v>818</v>
       </c>
       <c r="AK30" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL30" s="115"/>
     </row>
-    <row r="31" spans="1:38" ht="105" customHeight="1">
+    <row r="31" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="62">
         <v>24</v>
       </c>
@@ -24951,11 +24958,11 @@
         <v>758</v>
       </c>
       <c r="AK31" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL31" s="53"/>
     </row>
-    <row r="32" spans="1:38" ht="105" customHeight="1">
+    <row r="32" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="62">
         <v>25</v>
       </c>
@@ -25073,11 +25080,11 @@
         <v>759</v>
       </c>
       <c r="AK32" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL32" s="53"/>
     </row>
-    <row r="33" spans="1:38" ht="105" customHeight="1">
+    <row r="33" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="62">
         <v>26</v>
       </c>
@@ -25195,11 +25202,11 @@
         <v>859</v>
       </c>
       <c r="AK33" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL33" s="53"/>
     </row>
-    <row r="34" spans="1:38" ht="105" customHeight="1">
+    <row r="34" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="62">
         <v>27</v>
       </c>
@@ -25317,11 +25324,11 @@
         <v>736</v>
       </c>
       <c r="AK34" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL34" s="53"/>
     </row>
-    <row r="35" spans="1:38" ht="105" customHeight="1">
+    <row r="35" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="62">
         <v>28</v>
       </c>
@@ -25439,11 +25446,11 @@
         <v>826</v>
       </c>
       <c r="AK35" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL35" s="53"/>
     </row>
-    <row r="36" spans="1:38" ht="105" customHeight="1">
+    <row r="36" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="62">
         <v>29</v>
       </c>
@@ -25544,7 +25551,7 @@
         <v>41</v>
       </c>
       <c r="AF36" s="173" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AG36" s="174">
         <v>14</v>
@@ -25561,13 +25568,13 @@
         <v>678</v>
       </c>
       <c r="AK36" s="177" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AL36" s="186" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="105" customHeight="1">
+    <row r="37" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="62">
         <v>30</v>
       </c>
@@ -25685,11 +25692,11 @@
         <v>825</v>
       </c>
       <c r="AK37" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL37" s="53"/>
     </row>
-    <row r="38" spans="1:38" ht="105" customHeight="1">
+    <row r="38" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="62">
         <v>31</v>
       </c>
@@ -25750,7 +25757,7 @@
         <v>109</v>
       </c>
       <c r="T38" s="172" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="U38" s="172">
         <v>60</v>
@@ -25807,13 +25814,13 @@
         <v>728</v>
       </c>
       <c r="AK38" s="177" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AL38" s="186" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
-    <row r="39" spans="1:38" ht="105" customHeight="1">
+    <row r="39" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="62">
         <v>32</v>
       </c>
@@ -25931,11 +25938,11 @@
         <v>710</v>
       </c>
       <c r="AK39" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL39" s="53"/>
     </row>
-    <row r="40" spans="1:38" ht="105" customHeight="1">
+    <row r="40" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="62">
         <v>33</v>
       </c>
@@ -26053,11 +26060,11 @@
         <v>697</v>
       </c>
       <c r="AK40" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL40" s="53"/>
     </row>
-    <row r="41" spans="1:38" ht="105" customHeight="1">
+    <row r="41" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="62">
         <v>34</v>
       </c>
@@ -26175,11 +26182,11 @@
         <v>816</v>
       </c>
       <c r="AK41" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL41" s="53"/>
     </row>
-    <row r="42" spans="1:38" ht="105" customHeight="1">
+    <row r="42" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="62">
         <v>35</v>
       </c>
@@ -26297,11 +26304,11 @@
         <v>817</v>
       </c>
       <c r="AK42" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL42" s="53"/>
     </row>
-    <row r="43" spans="1:38" ht="105" customHeight="1">
+    <row r="43" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="62">
         <v>36</v>
       </c>
@@ -26419,11 +26426,11 @@
         <v>836</v>
       </c>
       <c r="AK43" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL43" s="53"/>
     </row>
-    <row r="44" spans="1:38" ht="105" customHeight="1">
+    <row r="44" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="62">
         <v>37</v>
       </c>
@@ -26541,11 +26548,11 @@
         <v>794</v>
       </c>
       <c r="AK44" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL44" s="53"/>
     </row>
-    <row r="45" spans="1:38" ht="105" customHeight="1">
+    <row r="45" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="62">
         <v>38</v>
       </c>
@@ -26663,11 +26670,11 @@
         <v>682</v>
       </c>
       <c r="AK45" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL45" s="53"/>
     </row>
-    <row r="46" spans="1:38" ht="105" customHeight="1">
+    <row r="46" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="62">
         <v>39</v>
       </c>
@@ -26785,11 +26792,11 @@
         <v>646</v>
       </c>
       <c r="AK46" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL46" s="53"/>
     </row>
-    <row r="47" spans="1:38" ht="105" customHeight="1">
+    <row r="47" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="62">
         <v>40</v>
       </c>
@@ -26907,11 +26914,11 @@
         <v>712</v>
       </c>
       <c r="AK47" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL47" s="53"/>
     </row>
-    <row r="48" spans="1:38" ht="105" customHeight="1">
+    <row r="48" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="62">
         <v>41</v>
       </c>
@@ -27029,11 +27036,11 @@
         <v>701</v>
       </c>
       <c r="AK48" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL48" s="53"/>
     </row>
-    <row r="49" spans="1:38" ht="105" customHeight="1">
+    <row r="49" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="62">
         <v>42</v>
       </c>
@@ -27151,11 +27158,11 @@
         <v>741</v>
       </c>
       <c r="AK49" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL49" s="53"/>
     </row>
-    <row r="50" spans="1:38" ht="105" customHeight="1">
+    <row r="50" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="62">
         <v>43</v>
       </c>
@@ -27273,11 +27280,11 @@
         <v>918</v>
       </c>
       <c r="AK50" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL50" s="53"/>
     </row>
-    <row r="51" spans="1:38" ht="105" customHeight="1">
+    <row r="51" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="62">
         <v>44</v>
       </c>
@@ -27395,11 +27402,11 @@
         <v>794</v>
       </c>
       <c r="AK51" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL51" s="115"/>
     </row>
-    <row r="52" spans="1:38" ht="105" customHeight="1">
+    <row r="52" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="62">
         <v>45</v>
       </c>
@@ -27517,13 +27524,13 @@
         <v>614</v>
       </c>
       <c r="AK52" s="177" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AL52" s="186" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
-    <row r="53" spans="1:38" ht="105" customHeight="1">
+    <row r="53" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="62">
         <v>46</v>
       </c>
@@ -27641,11 +27648,11 @@
         <v>790</v>
       </c>
       <c r="AK53" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL53" s="53"/>
     </row>
-    <row r="54" spans="1:38" ht="105" customHeight="1">
+    <row r="54" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="62">
         <v>47</v>
       </c>
@@ -27763,11 +27770,11 @@
         <v>753</v>
       </c>
       <c r="AK54" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL54" s="115"/>
     </row>
-    <row r="55" spans="1:38" ht="105" customHeight="1">
+    <row r="55" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="62">
         <v>48</v>
       </c>
@@ -27885,11 +27892,11 @@
         <v>764</v>
       </c>
       <c r="AK55" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL55" s="53"/>
     </row>
-    <row r="56" spans="1:38" ht="105" customHeight="1">
+    <row r="56" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="62">
         <v>49</v>
       </c>
@@ -28007,13 +28014,13 @@
         <v>571</v>
       </c>
       <c r="AK56" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL56" s="187" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
-    <row r="57" spans="1:38" ht="105" customHeight="1">
+    <row r="57" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="62">
         <v>50</v>
       </c>
@@ -28131,13 +28138,13 @@
         <v>714</v>
       </c>
       <c r="AK57" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL57" s="187" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
-    <row r="58" spans="1:38" ht="105" customHeight="1">
+    <row r="58" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="62">
         <v>51</v>
       </c>
@@ -28158,17 +28165,17 @@
       </c>
       <c r="G58" s="104"/>
       <c r="H58" s="172" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="I58" s="181" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="J58" s="167">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K58" s="172" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="L58" s="183"/>
       <c r="M58" s="167">
@@ -28176,10 +28183,10 @@
         <v>0</v>
       </c>
       <c r="N58" s="172" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="O58" s="174" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="P58" s="167">
         <f t="shared" si="2"/>
@@ -28187,37 +28194,37 @@
       </c>
       <c r="Q58" s="174"/>
       <c r="R58" s="174" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="S58" s="167">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T58" s="174" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="U58" s="181" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="V58" s="167">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W58" s="173" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="X58" s="173" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="Y58" s="167">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z58" s="179" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AA58" s="182" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AB58" s="167">
         <f t="shared" si="6"/>
@@ -28234,7 +28241,7 @@
         <v>41</v>
       </c>
       <c r="AF58" s="174" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AG58" s="174">
         <v>14</v>
@@ -28251,11 +28258,11 @@
         <v>14</v>
       </c>
       <c r="AK58" s="188" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AL58" s="88"/>
     </row>
-    <row r="59" spans="1:38" ht="105" customHeight="1">
+    <row r="59" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="62">
         <v>52</v>
       </c>
@@ -28373,11 +28380,11 @@
         <v>782</v>
       </c>
       <c r="AK59" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL59" s="88"/>
     </row>
-    <row r="60" spans="1:38" ht="105" customHeight="1">
+    <row r="60" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="62">
         <v>53</v>
       </c>
@@ -28495,11 +28502,11 @@
         <v>728</v>
       </c>
       <c r="AK60" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL60" s="115"/>
     </row>
-    <row r="61" spans="1:38" ht="105" customHeight="1">
+    <row r="61" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="62">
         <v>54</v>
       </c>
@@ -28617,11 +28624,11 @@
         <v>834</v>
       </c>
       <c r="AK61" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL61" s="81"/>
     </row>
-    <row r="62" spans="1:38" ht="105" customHeight="1">
+    <row r="62" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="62">
         <v>55</v>
       </c>
@@ -28739,11 +28746,11 @@
         <v>726</v>
       </c>
       <c r="AK62" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL62" s="81"/>
     </row>
-    <row r="63" spans="1:38" ht="105" customHeight="1">
+    <row r="63" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="62">
         <v>56</v>
       </c>
@@ -28861,11 +28868,11 @@
         <v>830</v>
       </c>
       <c r="AK63" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL63" s="81"/>
     </row>
-    <row r="64" spans="1:38" ht="105" customHeight="1">
+    <row r="64" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="62">
         <v>57</v>
       </c>
@@ -28983,11 +28990,11 @@
         <v>677</v>
       </c>
       <c r="AK64" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL64" s="115"/>
     </row>
-    <row r="65" spans="1:38" ht="105" customHeight="1">
+    <row r="65" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="62">
         <v>58</v>
       </c>
@@ -29105,11 +29112,11 @@
         <v>836</v>
       </c>
       <c r="AK65" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL65" s="81"/>
     </row>
-    <row r="66" spans="1:38" ht="105" customHeight="1">
+    <row r="66" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="62">
         <v>59</v>
       </c>
@@ -29227,11 +29234,11 @@
         <v>678</v>
       </c>
       <c r="AK66" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL66" s="81"/>
     </row>
-    <row r="67" spans="1:38" ht="105" customHeight="1">
+    <row r="67" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="62">
         <v>60</v>
       </c>
@@ -29349,11 +29356,11 @@
         <v>777</v>
       </c>
       <c r="AK67" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL67" s="115"/>
     </row>
-    <row r="68" spans="1:38" ht="105" customHeight="1">
+    <row r="68" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="62">
         <v>61</v>
       </c>
@@ -29471,11 +29478,11 @@
         <v>714</v>
       </c>
       <c r="AK68" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL68" s="81"/>
     </row>
-    <row r="69" spans="1:38" ht="105" customHeight="1">
+    <row r="69" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="62">
         <v>62</v>
       </c>
@@ -29593,11 +29600,11 @@
         <v>693</v>
       </c>
       <c r="AK69" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL69" s="115"/>
     </row>
-    <row r="70" spans="1:38" ht="105" customHeight="1">
+    <row r="70" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="62">
         <v>63</v>
       </c>
@@ -29715,11 +29722,11 @@
         <v>788</v>
       </c>
       <c r="AK70" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL70" s="115"/>
     </row>
-    <row r="71" spans="1:38" ht="105" customHeight="1">
+    <row r="71" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="62">
         <v>64</v>
       </c>
@@ -29837,11 +29844,11 @@
         <v>869</v>
       </c>
       <c r="AK71" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL71" s="81"/>
     </row>
-    <row r="72" spans="1:38" ht="105" customHeight="1">
+    <row r="72" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="62">
         <v>65</v>
       </c>
@@ -29959,11 +29966,11 @@
         <v>712</v>
       </c>
       <c r="AK72" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL72" s="81"/>
     </row>
-    <row r="73" spans="1:38" ht="105" customHeight="1">
+    <row r="73" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="62">
         <v>66</v>
       </c>
@@ -29977,10 +29984,10 @@
         <v>202419</v>
       </c>
       <c r="E73" s="126" t="s">
+        <v>751</v>
+      </c>
+      <c r="F73" s="126" t="s">
         <v>669</v>
-      </c>
-      <c r="F73" s="126" t="s">
-        <v>670</v>
       </c>
       <c r="G73" s="105"/>
       <c r="H73" s="181">
@@ -30081,11 +30088,11 @@
         <v>719</v>
       </c>
       <c r="AK73" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL73" s="81"/>
     </row>
-    <row r="74" spans="1:38" ht="105" customHeight="1">
+    <row r="74" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="62">
         <v>67</v>
       </c>
@@ -30099,10 +30106,10 @@
         <v>202420</v>
       </c>
       <c r="E74" s="139" t="s">
+        <v>670</v>
+      </c>
+      <c r="F74" s="139" t="s">
         <v>671</v>
-      </c>
-      <c r="F74" s="139" t="s">
-        <v>672</v>
       </c>
       <c r="G74" s="105"/>
       <c r="H74" s="181">
@@ -30203,11 +30210,11 @@
         <v>666</v>
       </c>
       <c r="AK74" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL74" s="115"/>
     </row>
-    <row r="75" spans="1:38" ht="105" customHeight="1">
+    <row r="75" spans="1:38" ht="105" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="62">
         <v>68</v>
       </c>
@@ -30219,10 +30226,10 @@
         <v>190602</v>
       </c>
       <c r="E75" s="195" t="s">
+        <v>727</v>
+      </c>
+      <c r="F75" s="195" t="s">
         <v>728</v>
-      </c>
-      <c r="F75" s="195" t="s">
-        <v>729</v>
       </c>
       <c r="G75" s="159"/>
       <c r="H75" s="184">
@@ -30319,17 +30326,12 @@
         <v>751</v>
       </c>
       <c r="AK75" s="176" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL75" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="AC4:AE4"/>
     <mergeCell ref="AF4:AH4"/>
     <mergeCell ref="A1:AL1"/>
     <mergeCell ref="A2:AL2"/>
@@ -30343,6 +30345,11 @@
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="AC4:AE4"/>
   </mergeCells>
   <conditionalFormatting sqref="H8:H74 Q8:Q75">
     <cfRule type="cellIs" dxfId="52" priority="20" stopIfTrue="1" operator="lessThan">
@@ -30382,14 +30389,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="A44" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="G4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.33203125" defaultRowHeight="27" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="6.33203125" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.33203125" style="30" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" style="30" customWidth="1"/>
@@ -30409,209 +30416,209 @@
     <col min="41" max="16384" width="6.33203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="42" customHeight="1">
-      <c r="A1" s="222" t="s">
+    <row r="1" spans="1:40" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="218" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="222"/>
-      <c r="G1" s="222"/>
-      <c r="H1" s="222"/>
-      <c r="I1" s="222"/>
-      <c r="J1" s="222"/>
-      <c r="K1" s="222"/>
-      <c r="L1" s="222"/>
-      <c r="M1" s="222"/>
-      <c r="N1" s="222"/>
-      <c r="O1" s="222"/>
-      <c r="P1" s="222"/>
-      <c r="Q1" s="222"/>
-      <c r="R1" s="222"/>
-      <c r="S1" s="222"/>
-      <c r="T1" s="222"/>
-      <c r="U1" s="222"/>
-      <c r="V1" s="222"/>
-      <c r="W1" s="222"/>
-      <c r="X1" s="222"/>
-      <c r="Y1" s="222"/>
-      <c r="Z1" s="222"/>
-      <c r="AA1" s="222"/>
-      <c r="AB1" s="222"/>
-      <c r="AC1" s="222"/>
-      <c r="AD1" s="222"/>
-      <c r="AE1" s="222"/>
-      <c r="AF1" s="222"/>
-      <c r="AG1" s="222"/>
-      <c r="AH1" s="222"/>
-      <c r="AI1" s="222"/>
-      <c r="AJ1" s="222"/>
-      <c r="AK1" s="222"/>
-      <c r="AL1" s="222"/>
-      <c r="AM1" s="222"/>
-      <c r="AN1" s="222"/>
+      <c r="B1" s="218"/>
+      <c r="C1" s="218"/>
+      <c r="D1" s="218"/>
+      <c r="E1" s="218"/>
+      <c r="F1" s="218"/>
+      <c r="G1" s="218"/>
+      <c r="H1" s="218"/>
+      <c r="I1" s="218"/>
+      <c r="J1" s="218"/>
+      <c r="K1" s="218"/>
+      <c r="L1" s="218"/>
+      <c r="M1" s="218"/>
+      <c r="N1" s="218"/>
+      <c r="O1" s="218"/>
+      <c r="P1" s="218"/>
+      <c r="Q1" s="218"/>
+      <c r="R1" s="218"/>
+      <c r="S1" s="218"/>
+      <c r="T1" s="218"/>
+      <c r="U1" s="218"/>
+      <c r="V1" s="218"/>
+      <c r="W1" s="218"/>
+      <c r="X1" s="218"/>
+      <c r="Y1" s="218"/>
+      <c r="Z1" s="218"/>
+      <c r="AA1" s="218"/>
+      <c r="AB1" s="218"/>
+      <c r="AC1" s="218"/>
+      <c r="AD1" s="218"/>
+      <c r="AE1" s="218"/>
+      <c r="AF1" s="218"/>
+      <c r="AG1" s="218"/>
+      <c r="AH1" s="218"/>
+      <c r="AI1" s="218"/>
+      <c r="AJ1" s="218"/>
+      <c r="AK1" s="218"/>
+      <c r="AL1" s="218"/>
+      <c r="AM1" s="218"/>
+      <c r="AN1" s="218"/>
     </row>
-    <row r="2" spans="1:40" ht="42" customHeight="1">
-      <c r="A2" s="222" t="s">
+    <row r="2" spans="1:40" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="218" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="222"/>
-      <c r="C2" s="222"/>
-      <c r="D2" s="222"/>
-      <c r="E2" s="222"/>
-      <c r="F2" s="222"/>
-      <c r="G2" s="222"/>
-      <c r="H2" s="222"/>
-      <c r="I2" s="222"/>
-      <c r="J2" s="222"/>
-      <c r="K2" s="222"/>
-      <c r="L2" s="222"/>
-      <c r="M2" s="222"/>
-      <c r="N2" s="222"/>
-      <c r="O2" s="222"/>
-      <c r="P2" s="222"/>
-      <c r="Q2" s="222"/>
-      <c r="R2" s="222"/>
-      <c r="S2" s="222"/>
-      <c r="T2" s="222"/>
-      <c r="U2" s="222"/>
-      <c r="V2" s="222"/>
-      <c r="W2" s="222"/>
-      <c r="X2" s="222"/>
-      <c r="Y2" s="222"/>
-      <c r="Z2" s="222"/>
-      <c r="AA2" s="222"/>
-      <c r="AB2" s="222"/>
-      <c r="AC2" s="222"/>
-      <c r="AD2" s="222"/>
-      <c r="AE2" s="222"/>
-      <c r="AF2" s="222"/>
-      <c r="AG2" s="222"/>
-      <c r="AH2" s="222"/>
-      <c r="AI2" s="222"/>
-      <c r="AJ2" s="222"/>
-      <c r="AK2" s="222"/>
-      <c r="AL2" s="222"/>
-      <c r="AM2" s="222"/>
-      <c r="AN2" s="222"/>
+      <c r="B2" s="218"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="218"/>
+      <c r="K2" s="218"/>
+      <c r="L2" s="218"/>
+      <c r="M2" s="218"/>
+      <c r="N2" s="218"/>
+      <c r="O2" s="218"/>
+      <c r="P2" s="218"/>
+      <c r="Q2" s="218"/>
+      <c r="R2" s="218"/>
+      <c r="S2" s="218"/>
+      <c r="T2" s="218"/>
+      <c r="U2" s="218"/>
+      <c r="V2" s="218"/>
+      <c r="W2" s="218"/>
+      <c r="X2" s="218"/>
+      <c r="Y2" s="218"/>
+      <c r="Z2" s="218"/>
+      <c r="AA2" s="218"/>
+      <c r="AB2" s="218"/>
+      <c r="AC2" s="218"/>
+      <c r="AD2" s="218"/>
+      <c r="AE2" s="218"/>
+      <c r="AF2" s="218"/>
+      <c r="AG2" s="218"/>
+      <c r="AH2" s="218"/>
+      <c r="AI2" s="218"/>
+      <c r="AJ2" s="218"/>
+      <c r="AK2" s="218"/>
+      <c r="AL2" s="218"/>
+      <c r="AM2" s="218"/>
+      <c r="AN2" s="218"/>
     </row>
-    <row r="3" spans="1:40" ht="42" customHeight="1">
-      <c r="A3" s="223" t="s">
+    <row r="3" spans="1:40" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="219" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="223"/>
-      <c r="C3" s="223"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="223"/>
-      <c r="F3" s="223"/>
-      <c r="G3" s="223"/>
-      <c r="H3" s="223"/>
-      <c r="I3" s="223"/>
-      <c r="J3" s="223"/>
-      <c r="K3" s="223"/>
-      <c r="L3" s="223"/>
-      <c r="M3" s="223"/>
-      <c r="N3" s="223"/>
-      <c r="O3" s="223"/>
-      <c r="P3" s="223"/>
-      <c r="Q3" s="223"/>
-      <c r="R3" s="223"/>
-      <c r="S3" s="223"/>
-      <c r="T3" s="223"/>
-      <c r="U3" s="223"/>
-      <c r="V3" s="223"/>
-      <c r="W3" s="223"/>
-      <c r="X3" s="223"/>
-      <c r="Y3" s="223"/>
-      <c r="Z3" s="223"/>
-      <c r="AA3" s="223"/>
-      <c r="AB3" s="223"/>
-      <c r="AC3" s="223"/>
-      <c r="AD3" s="223"/>
-      <c r="AE3" s="223"/>
-      <c r="AF3" s="223"/>
-      <c r="AG3" s="223"/>
-      <c r="AH3" s="223"/>
-      <c r="AI3" s="223"/>
-      <c r="AJ3" s="223"/>
-      <c r="AK3" s="223"/>
-      <c r="AL3" s="223"/>
-      <c r="AM3" s="223"/>
-      <c r="AN3" s="223"/>
+      <c r="B3" s="219"/>
+      <c r="C3" s="219"/>
+      <c r="D3" s="219"/>
+      <c r="E3" s="219"/>
+      <c r="F3" s="219"/>
+      <c r="G3" s="219"/>
+      <c r="H3" s="219"/>
+      <c r="I3" s="219"/>
+      <c r="J3" s="219"/>
+      <c r="K3" s="219"/>
+      <c r="L3" s="219"/>
+      <c r="M3" s="219"/>
+      <c r="N3" s="219"/>
+      <c r="O3" s="219"/>
+      <c r="P3" s="219"/>
+      <c r="Q3" s="219"/>
+      <c r="R3" s="219"/>
+      <c r="S3" s="219"/>
+      <c r="T3" s="219"/>
+      <c r="U3" s="219"/>
+      <c r="V3" s="219"/>
+      <c r="W3" s="219"/>
+      <c r="X3" s="219"/>
+      <c r="Y3" s="219"/>
+      <c r="Z3" s="219"/>
+      <c r="AA3" s="219"/>
+      <c r="AB3" s="219"/>
+      <c r="AC3" s="219"/>
+      <c r="AD3" s="219"/>
+      <c r="AE3" s="219"/>
+      <c r="AF3" s="219"/>
+      <c r="AG3" s="219"/>
+      <c r="AH3" s="219"/>
+      <c r="AI3" s="219"/>
+      <c r="AJ3" s="219"/>
+      <c r="AK3" s="219"/>
+      <c r="AL3" s="219"/>
+      <c r="AM3" s="219"/>
+      <c r="AN3" s="219"/>
     </row>
-    <row r="4" spans="1:40" ht="180.75" customHeight="1">
-      <c r="A4" s="218" t="s">
+    <row r="4" spans="1:40" ht="180.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="220" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="218" t="s">
+      <c r="B4" s="220" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="218" t="s">
+      <c r="C4" s="220" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="218" t="s">
+      <c r="D4" s="220" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="220" t="s">
+      <c r="E4" s="222" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="220" t="s">
+      <c r="F4" s="222" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="196" t="s">
+      <c r="H4" s="203" t="s">
+        <v>714</v>
+      </c>
+      <c r="I4" s="203"/>
+      <c r="J4" s="203"/>
+      <c r="K4" s="203" t="s">
+        <v>724</v>
+      </c>
+      <c r="L4" s="203"/>
+      <c r="M4" s="203"/>
+      <c r="N4" s="203" t="s">
         <v>715</v>
       </c>
-      <c r="I4" s="196"/>
-      <c r="J4" s="196"/>
-      <c r="K4" s="196" t="s">
-        <v>725</v>
-      </c>
-      <c r="L4" s="196"/>
-      <c r="M4" s="196"/>
-      <c r="N4" s="196" t="s">
+      <c r="O4" s="203"/>
+      <c r="P4" s="203"/>
+      <c r="Q4" s="208" t="s">
+        <v>737</v>
+      </c>
+      <c r="R4" s="209"/>
+      <c r="S4" s="210"/>
+      <c r="T4" s="208" t="s">
         <v>716</v>
       </c>
-      <c r="O4" s="196"/>
-      <c r="P4" s="196"/>
-      <c r="Q4" s="202" t="s">
-        <v>738</v>
-      </c>
-      <c r="R4" s="203"/>
-      <c r="S4" s="204"/>
-      <c r="T4" s="202" t="s">
+      <c r="U4" s="209"/>
+      <c r="V4" s="210"/>
+      <c r="W4" s="208" t="s">
+        <v>747</v>
+      </c>
+      <c r="X4" s="209"/>
+      <c r="Y4" s="210"/>
+      <c r="Z4" s="203" t="s">
         <v>717</v>
       </c>
-      <c r="U4" s="203"/>
-      <c r="V4" s="204"/>
-      <c r="W4" s="202" t="s">
-        <v>748</v>
-      </c>
-      <c r="X4" s="203"/>
-      <c r="Y4" s="204"/>
-      <c r="Z4" s="196" t="s">
+      <c r="AA4" s="203"/>
+      <c r="AB4" s="203"/>
+      <c r="AC4" s="203" t="s">
         <v>718</v>
       </c>
-      <c r="AA4" s="196"/>
-      <c r="AB4" s="196"/>
-      <c r="AC4" s="196" t="s">
+      <c r="AD4" s="203"/>
+      <c r="AE4" s="203"/>
+      <c r="AF4" s="203" t="s">
+        <v>723</v>
+      </c>
+      <c r="AG4" s="203"/>
+      <c r="AH4" s="203"/>
+      <c r="AI4" s="203" t="s">
         <v>719</v>
       </c>
-      <c r="AD4" s="196"/>
-      <c r="AE4" s="196"/>
-      <c r="AF4" s="196" t="s">
-        <v>724</v>
-      </c>
-      <c r="AG4" s="196"/>
-      <c r="AH4" s="196"/>
-      <c r="AI4" s="196" t="s">
-        <v>720</v>
-      </c>
-      <c r="AJ4" s="196"/>
+      <c r="AJ4" s="203"/>
       <c r="AK4" s="57" t="s">
         <v>37</v>
       </c>
@@ -30625,13 +30632,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="45.75" customHeight="1">
-      <c r="A5" s="218"/>
-      <c r="B5" s="218"/>
-      <c r="C5" s="218"/>
-      <c r="D5" s="218"/>
-      <c r="E5" s="220"/>
-      <c r="F5" s="220"/>
+    <row r="5" spans="1:40" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="220"/>
+      <c r="B5" s="220"/>
+      <c r="C5" s="220"/>
+      <c r="D5" s="220"/>
+      <c r="E5" s="222"/>
+      <c r="F5" s="222"/>
       <c r="G5" s="17"/>
       <c r="H5" s="38" t="s">
         <v>7</v>
@@ -30725,13 +30732,13 @@
       <c r="AM5" s="17"/>
       <c r="AN5" s="17"/>
     </row>
-    <row r="6" spans="1:40" ht="45.75" customHeight="1">
-      <c r="A6" s="218"/>
-      <c r="B6" s="218"/>
-      <c r="C6" s="218"/>
-      <c r="D6" s="218"/>
-      <c r="E6" s="220"/>
-      <c r="F6" s="220"/>
+    <row r="6" spans="1:40" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="220"/>
+      <c r="B6" s="220"/>
+      <c r="C6" s="220"/>
+      <c r="D6" s="220"/>
+      <c r="E6" s="222"/>
+      <c r="F6" s="222"/>
       <c r="G6" s="17" t="s">
         <v>2</v>
       </c>
@@ -30841,13 +30848,13 @@
       <c r="AM6" s="19"/>
       <c r="AN6" s="19"/>
     </row>
-    <row r="7" spans="1:40" ht="45.75" customHeight="1">
-      <c r="A7" s="219"/>
-      <c r="B7" s="219"/>
-      <c r="C7" s="219"/>
-      <c r="D7" s="219"/>
-      <c r="E7" s="221"/>
-      <c r="F7" s="221"/>
+    <row r="7" spans="1:40" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="221"/>
+      <c r="B7" s="221"/>
+      <c r="C7" s="221"/>
+      <c r="D7" s="221"/>
+      <c r="E7" s="223"/>
+      <c r="F7" s="223"/>
       <c r="G7" s="29" t="s">
         <v>3</v>
       </c>
@@ -30927,7 +30934,7 @@
       <c r="AM7" s="50"/>
       <c r="AN7" s="22"/>
     </row>
-    <row r="8" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="8" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="129">
         <v>1</v>
       </c>
@@ -31054,7 +31061,7 @@
       <c r="AM8" s="123"/>
       <c r="AN8" s="88"/>
     </row>
-    <row r="9" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="9" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="129">
         <v>2</v>
       </c>
@@ -31179,11 +31186,11 @@
         <v>569</v>
       </c>
       <c r="AM9" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN9" s="133"/>
     </row>
-    <row r="10" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="10" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="129">
         <v>3</v>
       </c>
@@ -31308,11 +31315,11 @@
         <v>518</v>
       </c>
       <c r="AM10" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN10" s="88"/>
     </row>
-    <row r="11" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="11" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="129">
         <v>4</v>
       </c>
@@ -31437,11 +31444,11 @@
         <v>596</v>
       </c>
       <c r="AM11" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN11" s="88"/>
     </row>
-    <row r="12" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="12" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="129">
         <v>5</v>
       </c>
@@ -31566,11 +31573,11 @@
         <v>542</v>
       </c>
       <c r="AM12" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN12" s="88"/>
     </row>
-    <row r="13" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="13" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="129">
         <v>6</v>
       </c>
@@ -31695,11 +31702,11 @@
         <v>605</v>
       </c>
       <c r="AM13" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN13" s="88"/>
     </row>
-    <row r="14" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="14" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="129">
         <v>7</v>
       </c>
@@ -31824,11 +31831,11 @@
         <v>557</v>
       </c>
       <c r="AM14" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN14" s="88"/>
     </row>
-    <row r="15" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="15" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="129">
         <v>8</v>
       </c>
@@ -31953,11 +31960,11 @@
         <v>677</v>
       </c>
       <c r="AM15" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN15" s="88"/>
     </row>
-    <row r="16" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="16" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="129">
         <v>9</v>
       </c>
@@ -32082,11 +32089,11 @@
         <v>607</v>
       </c>
       <c r="AM16" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN16" s="88"/>
     </row>
-    <row r="17" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="17" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="129">
         <v>10</v>
       </c>
@@ -32211,11 +32218,11 @@
         <v>532</v>
       </c>
       <c r="AM17" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN17" s="88"/>
     </row>
-    <row r="18" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="18" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="129">
         <v>11</v>
       </c>
@@ -32340,11 +32347,11 @@
         <v>540</v>
       </c>
       <c r="AM18" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN18" s="88"/>
     </row>
-    <row r="19" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="19" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="129">
         <v>12</v>
       </c>
@@ -32469,11 +32476,11 @@
         <v>622</v>
       </c>
       <c r="AM19" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN19" s="88"/>
     </row>
-    <row r="20" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="20" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="129">
         <v>13</v>
       </c>
@@ -32598,11 +32605,11 @@
         <v>577</v>
       </c>
       <c r="AM20" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN20" s="135"/>
     </row>
-    <row r="21" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="21" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="129">
         <v>14</v>
       </c>
@@ -32619,7 +32626,7 @@
         <v>382</v>
       </c>
       <c r="F21" s="132" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G21" s="91"/>
       <c r="H21" s="76">
@@ -32727,11 +32734,11 @@
         <v>585</v>
       </c>
       <c r="AM21" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN21" s="88"/>
     </row>
-    <row r="22" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="22" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="129">
         <v>15</v>
       </c>
@@ -32856,11 +32863,11 @@
         <v>524</v>
       </c>
       <c r="AM22" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN22" s="88"/>
     </row>
-    <row r="23" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="23" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="129">
         <v>16</v>
       </c>
@@ -32985,11 +32992,11 @@
         <v>578</v>
       </c>
       <c r="AM23" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN23" s="88"/>
     </row>
-    <row r="24" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="24" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="129">
         <v>17</v>
       </c>
@@ -33114,11 +33121,11 @@
         <v>626</v>
       </c>
       <c r="AM24" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN24" s="88"/>
     </row>
-    <row r="25" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="25" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="129">
         <v>18</v>
       </c>
@@ -33243,11 +33250,11 @@
         <v>605</v>
       </c>
       <c r="AM25" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN25" s="88"/>
     </row>
-    <row r="26" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="26" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="129">
         <v>19</v>
       </c>
@@ -33372,11 +33379,11 @@
         <v>567</v>
       </c>
       <c r="AM26" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN26" s="88"/>
     </row>
-    <row r="27" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="27" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="129">
         <v>20</v>
       </c>
@@ -33501,11 +33508,11 @@
         <v>582</v>
       </c>
       <c r="AM27" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN27" s="88"/>
     </row>
-    <row r="28" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="28" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="129">
         <v>21</v>
       </c>
@@ -33630,13 +33637,13 @@
         <v>472</v>
       </c>
       <c r="AM28" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN28" s="88" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
-    <row r="29" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="29" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="129">
         <v>22</v>
       </c>
@@ -33761,11 +33768,11 @@
         <v>632</v>
       </c>
       <c r="AM29" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN29" s="88"/>
     </row>
-    <row r="30" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="30" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="129">
         <v>23</v>
       </c>
@@ -33890,11 +33897,11 @@
         <v>552</v>
       </c>
       <c r="AM30" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN30" s="88"/>
     </row>
-    <row r="31" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="31" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="129">
         <v>24</v>
       </c>
@@ -34019,11 +34026,11 @@
         <v>616</v>
       </c>
       <c r="AM31" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN31" s="88"/>
     </row>
-    <row r="32" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="32" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="129">
         <v>25</v>
       </c>
@@ -34148,11 +34155,11 @@
         <v>587</v>
       </c>
       <c r="AM32" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN32" s="88"/>
     </row>
-    <row r="33" spans="1:41" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="33" spans="1:41" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="129">
         <v>26</v>
       </c>
@@ -34277,11 +34284,11 @@
         <v>557</v>
       </c>
       <c r="AM33" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN33" s="135"/>
     </row>
-    <row r="34" spans="1:41" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="34" spans="1:41" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="129">
         <v>27</v>
       </c>
@@ -34406,11 +34413,11 @@
         <v>467</v>
       </c>
       <c r="AM34" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN34" s="88"/>
     </row>
-    <row r="35" spans="1:41" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="35" spans="1:41" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="129">
         <v>28</v>
       </c>
@@ -34535,11 +34542,11 @@
         <v>591</v>
       </c>
       <c r="AM35" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN35" s="88"/>
     </row>
-    <row r="36" spans="1:41" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="36" spans="1:41" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="129">
         <v>29</v>
       </c>
@@ -34664,11 +34671,11 @@
         <v>484</v>
       </c>
       <c r="AM36" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN36" s="135"/>
     </row>
-    <row r="37" spans="1:41" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="37" spans="1:41" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="129">
         <v>30</v>
       </c>
@@ -34793,11 +34800,11 @@
         <v>567</v>
       </c>
       <c r="AM37" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN37" s="88"/>
     </row>
-    <row r="38" spans="1:41" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="38" spans="1:41" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="129">
         <v>31</v>
       </c>
@@ -34878,7 +34885,7 @@
         <v>65</v>
       </c>
       <c r="Z38" s="76" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AA38" s="76">
         <v>18</v>
@@ -34898,7 +34905,7 @@
         <v>12</v>
       </c>
       <c r="AF38" s="76" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AG38" s="76">
         <v>12</v>
@@ -34922,14 +34929,14 @@
         <v>406</v>
       </c>
       <c r="AM38" s="149" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AN38" s="53" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AO38" s="30"/>
     </row>
-    <row r="39" spans="1:41" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="39" spans="1:41" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="129">
         <v>32</v>
       </c>
@@ -35054,11 +35061,11 @@
         <v>569</v>
       </c>
       <c r="AM39" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN39" s="88"/>
     </row>
-    <row r="40" spans="1:41" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="40" spans="1:41" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="129">
         <v>33</v>
       </c>
@@ -35183,11 +35190,11 @@
         <v>578</v>
       </c>
       <c r="AM40" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN40" s="88"/>
     </row>
-    <row r="41" spans="1:41" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="41" spans="1:41" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="129">
         <v>34</v>
       </c>
@@ -35312,11 +35319,11 @@
         <v>525</v>
       </c>
       <c r="AM41" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN41" s="88"/>
     </row>
-    <row r="42" spans="1:41" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="42" spans="1:41" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="129">
         <v>35</v>
       </c>
@@ -35441,13 +35448,13 @@
         <v>431</v>
       </c>
       <c r="AM42" s="149" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AN42" s="88" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
-    <row r="43" spans="1:41" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="43" spans="1:41" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="129">
         <v>36</v>
       </c>
@@ -35572,11 +35579,11 @@
         <v>542</v>
       </c>
       <c r="AM43" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN43" s="88"/>
     </row>
-    <row r="44" spans="1:41" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="44" spans="1:41" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="129">
         <v>37</v>
       </c>
@@ -35593,7 +35600,7 @@
         <v>426</v>
       </c>
       <c r="F44" s="132" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G44" s="91"/>
       <c r="H44" s="76">
@@ -35701,11 +35708,11 @@
         <v>526</v>
       </c>
       <c r="AM44" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN44" s="88"/>
     </row>
-    <row r="45" spans="1:41" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="45" spans="1:41" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="129">
         <v>38</v>
       </c>
@@ -35830,11 +35837,11 @@
         <v>624</v>
       </c>
       <c r="AM45" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN45" s="88"/>
     </row>
-    <row r="46" spans="1:41" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="46" spans="1:41" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="129">
         <v>39</v>
       </c>
@@ -35959,11 +35966,11 @@
         <v>595</v>
       </c>
       <c r="AM46" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN46" s="88"/>
     </row>
-    <row r="47" spans="1:41" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="47" spans="1:41" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="129">
         <v>40</v>
       </c>
@@ -36088,11 +36095,11 @@
         <v>630</v>
       </c>
       <c r="AM47" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN47" s="88"/>
     </row>
-    <row r="48" spans="1:41" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="48" spans="1:41" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="129">
         <v>41</v>
       </c>
@@ -36113,7 +36120,7 @@
       </c>
       <c r="G48" s="91"/>
       <c r="H48" s="76" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I48" s="76">
         <v>35</v>
@@ -36173,7 +36180,7 @@
         <v>83</v>
       </c>
       <c r="Z48" s="76" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AA48" s="76">
         <v>17</v>
@@ -36217,14 +36224,14 @@
         <v>419</v>
       </c>
       <c r="AM48" s="149" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AN48" s="53" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AO48" s="30"/>
     </row>
-    <row r="49" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="49" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="129">
         <v>42</v>
       </c>
@@ -36349,11 +36356,11 @@
         <v>577</v>
       </c>
       <c r="AM49" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN49" s="88"/>
     </row>
-    <row r="50" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="50" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="129">
         <v>43</v>
       </c>
@@ -36478,11 +36485,11 @@
         <v>551</v>
       </c>
       <c r="AM50" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN50" s="88"/>
     </row>
-    <row r="51" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="51" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="129">
         <v>44</v>
       </c>
@@ -36607,11 +36614,11 @@
         <v>657</v>
       </c>
       <c r="AM51" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN51" s="88"/>
     </row>
-    <row r="52" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="52" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="129">
         <v>45</v>
       </c>
@@ -36736,11 +36743,11 @@
         <v>502</v>
       </c>
       <c r="AM52" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN52" s="88"/>
     </row>
-    <row r="53" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="53" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="129">
         <v>46</v>
       </c>
@@ -36865,11 +36872,11 @@
         <v>562</v>
       </c>
       <c r="AM53" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN53" s="88"/>
     </row>
-    <row r="54" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="54" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="129">
         <v>47</v>
       </c>
@@ -36994,11 +37001,11 @@
         <v>550</v>
       </c>
       <c r="AM54" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN54" s="88"/>
     </row>
-    <row r="55" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="55" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="129">
         <v>48</v>
       </c>
@@ -37123,11 +37130,11 @@
         <v>579</v>
       </c>
       <c r="AM55" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN55" s="135"/>
     </row>
-    <row r="56" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="56" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="129">
         <v>49</v>
       </c>
@@ -37252,11 +37259,11 @@
         <v>594</v>
       </c>
       <c r="AM56" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN56" s="88"/>
     </row>
-    <row r="57" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="57" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="129">
         <v>50</v>
       </c>
@@ -37381,11 +37388,11 @@
         <v>541</v>
       </c>
       <c r="AM57" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN57" s="135"/>
     </row>
-    <row r="58" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="58" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="129">
         <v>51</v>
       </c>
@@ -37510,11 +37517,11 @@
         <v>483</v>
       </c>
       <c r="AM58" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN58" s="88"/>
     </row>
-    <row r="59" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="59" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="129">
         <v>52</v>
       </c>
@@ -37639,11 +37646,11 @@
         <v>533</v>
       </c>
       <c r="AM59" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN59" s="135"/>
     </row>
-    <row r="60" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="60" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="129">
         <v>53</v>
       </c>
@@ -37768,11 +37775,11 @@
         <v>562</v>
       </c>
       <c r="AM60" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN60" s="88"/>
     </row>
-    <row r="61" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="61" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="129">
         <v>54</v>
       </c>
@@ -37897,11 +37904,11 @@
         <v>537</v>
       </c>
       <c r="AM61" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN61" s="88"/>
     </row>
-    <row r="62" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="62" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="129">
         <v>55</v>
       </c>
@@ -37915,10 +37922,10 @@
         <v>202501</v>
       </c>
       <c r="E62" s="139" t="s">
+        <v>672</v>
+      </c>
+      <c r="F62" s="139" t="s">
         <v>673</v>
-      </c>
-      <c r="F62" s="139" t="s">
-        <v>674</v>
       </c>
       <c r="G62" s="138"/>
       <c r="H62" s="76">
@@ -38026,11 +38033,11 @@
         <v>596</v>
       </c>
       <c r="AM62" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN62" s="135"/>
     </row>
-    <row r="63" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="63" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="129">
         <v>56</v>
       </c>
@@ -38044,10 +38051,10 @@
         <v>202502</v>
       </c>
       <c r="E63" s="139" t="s">
+        <v>674</v>
+      </c>
+      <c r="F63" s="139" t="s">
         <v>675</v>
-      </c>
-      <c r="F63" s="139" t="s">
-        <v>676</v>
       </c>
       <c r="G63" s="138"/>
       <c r="H63" s="76">
@@ -38155,11 +38162,11 @@
         <v>673</v>
       </c>
       <c r="AM63" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN63" s="88"/>
     </row>
-    <row r="64" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="64" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="129">
         <v>57</v>
       </c>
@@ -38173,10 +38180,10 @@
         <v>202503</v>
       </c>
       <c r="E64" s="139" t="s">
+        <v>676</v>
+      </c>
+      <c r="F64" s="139" t="s">
         <v>677</v>
-      </c>
-      <c r="F64" s="139" t="s">
-        <v>678</v>
       </c>
       <c r="G64" s="138"/>
       <c r="H64" s="76">
@@ -38284,11 +38291,11 @@
         <v>655</v>
       </c>
       <c r="AM64" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN64" s="88"/>
     </row>
-    <row r="65" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="65" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="129">
         <v>58</v>
       </c>
@@ -38302,10 +38309,10 @@
         <v>202504</v>
       </c>
       <c r="E65" s="139" t="s">
+        <v>678</v>
+      </c>
+      <c r="F65" s="139" t="s">
         <v>679</v>
-      </c>
-      <c r="F65" s="139" t="s">
-        <v>680</v>
       </c>
       <c r="G65" s="138"/>
       <c r="H65" s="76">
@@ -38413,11 +38420,11 @@
         <v>545</v>
       </c>
       <c r="AM65" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN65" s="88"/>
     </row>
-    <row r="66" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="66" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="129">
         <v>59</v>
       </c>
@@ -38434,7 +38441,7 @@
         <v>116</v>
       </c>
       <c r="F66" s="139" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G66" s="103"/>
       <c r="H66" s="76">
@@ -38542,11 +38549,11 @@
         <v>586</v>
       </c>
       <c r="AM66" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN66" s="88"/>
     </row>
-    <row r="67" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="67" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="129">
         <v>60</v>
       </c>
@@ -38560,10 +38567,10 @@
         <v>202506</v>
       </c>
       <c r="E67" s="139" t="s">
+        <v>681</v>
+      </c>
+      <c r="F67" s="139" t="s">
         <v>682</v>
-      </c>
-      <c r="F67" s="139" t="s">
-        <v>683</v>
       </c>
       <c r="G67" s="140"/>
       <c r="H67" s="141">
@@ -38671,11 +38678,11 @@
         <v>563</v>
       </c>
       <c r="AM67" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN67" s="135"/>
     </row>
-    <row r="68" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="68" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="129">
         <v>61</v>
       </c>
@@ -38689,10 +38696,10 @@
         <v>202507</v>
       </c>
       <c r="E68" s="139" t="s">
+        <v>683</v>
+      </c>
+      <c r="F68" s="139" t="s">
         <v>684</v>
-      </c>
-      <c r="F68" s="139" t="s">
-        <v>685</v>
       </c>
       <c r="G68" s="140"/>
       <c r="H68" s="141">
@@ -38800,11 +38807,11 @@
         <v>549</v>
       </c>
       <c r="AM68" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN68" s="135"/>
     </row>
-    <row r="69" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="69" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="129">
         <v>62</v>
       </c>
@@ -38818,10 +38825,10 @@
         <v>202509</v>
       </c>
       <c r="E69" s="139" t="s">
+        <v>685</v>
+      </c>
+      <c r="F69" s="139" t="s">
         <v>686</v>
-      </c>
-      <c r="F69" s="139" t="s">
-        <v>687</v>
       </c>
       <c r="G69" s="140"/>
       <c r="H69" s="141">
@@ -38929,11 +38936,11 @@
         <v>531</v>
       </c>
       <c r="AM69" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN69" s="135"/>
     </row>
-    <row r="70" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="70" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="129">
         <v>63</v>
       </c>
@@ -38947,10 +38954,10 @@
         <v>202510</v>
       </c>
       <c r="E70" s="139" t="s">
+        <v>687</v>
+      </c>
+      <c r="F70" s="139" t="s">
         <v>688</v>
-      </c>
-      <c r="F70" s="139" t="s">
-        <v>689</v>
       </c>
       <c r="G70" s="140"/>
       <c r="H70" s="141">
@@ -39058,11 +39065,11 @@
         <v>560</v>
       </c>
       <c r="AM70" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN70" s="88"/>
     </row>
-    <row r="71" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="71" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="129">
         <v>64</v>
       </c>
@@ -39076,10 +39083,10 @@
         <v>202511</v>
       </c>
       <c r="E71" s="139" t="s">
+        <v>689</v>
+      </c>
+      <c r="F71" s="139" t="s">
         <v>690</v>
-      </c>
-      <c r="F71" s="139" t="s">
-        <v>691</v>
       </c>
       <c r="G71" s="140"/>
       <c r="H71" s="141">
@@ -39187,11 +39194,11 @@
         <v>623</v>
       </c>
       <c r="AM71" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN71" s="135"/>
     </row>
-    <row r="72" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="72" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="129">
         <v>65</v>
       </c>
@@ -39205,10 +39212,10 @@
         <v>202512</v>
       </c>
       <c r="E72" s="139" t="s">
+        <v>691</v>
+      </c>
+      <c r="F72" s="139" t="s">
         <v>692</v>
-      </c>
-      <c r="F72" s="139" t="s">
-        <v>693</v>
       </c>
       <c r="G72" s="140"/>
       <c r="H72" s="141">
@@ -39316,11 +39323,11 @@
         <v>573</v>
       </c>
       <c r="AM72" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN72" s="135"/>
     </row>
-    <row r="73" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="73" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="129">
         <v>66</v>
       </c>
@@ -39334,10 +39341,10 @@
         <v>202513</v>
       </c>
       <c r="E73" s="139" t="s">
+        <v>693</v>
+      </c>
+      <c r="F73" s="139" t="s">
         <v>694</v>
-      </c>
-      <c r="F73" s="139" t="s">
-        <v>695</v>
       </c>
       <c r="G73" s="140"/>
       <c r="H73" s="141">
@@ -39445,11 +39452,11 @@
         <v>553</v>
       </c>
       <c r="AM73" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN73" s="135"/>
     </row>
-    <row r="74" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="74" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="129">
         <v>67</v>
       </c>
@@ -39463,10 +39470,10 @@
         <v>202515</v>
       </c>
       <c r="E74" s="139" t="s">
+        <v>695</v>
+      </c>
+      <c r="F74" s="139" t="s">
         <v>696</v>
-      </c>
-      <c r="F74" s="139" t="s">
-        <v>697</v>
       </c>
       <c r="G74" s="140"/>
       <c r="H74" s="141">
@@ -39574,11 +39581,11 @@
         <v>646</v>
       </c>
       <c r="AM74" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN74" s="135"/>
     </row>
-    <row r="75" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="75" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="129">
         <v>68</v>
       </c>
@@ -39592,10 +39599,10 @@
         <v>202516</v>
       </c>
       <c r="E75" s="139" t="s">
+        <v>697</v>
+      </c>
+      <c r="F75" s="139" t="s">
         <v>698</v>
-      </c>
-      <c r="F75" s="139" t="s">
-        <v>699</v>
       </c>
       <c r="G75" s="140"/>
       <c r="H75" s="141">
@@ -39703,11 +39710,11 @@
         <v>599</v>
       </c>
       <c r="AM75" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN75" s="88"/>
     </row>
-    <row r="76" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="76" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="129">
         <v>69</v>
       </c>
@@ -39721,14 +39728,14 @@
         <v>202517</v>
       </c>
       <c r="E76" s="139" t="s">
+        <v>699</v>
+      </c>
+      <c r="F76" s="139" t="s">
         <v>700</v>
-      </c>
-      <c r="F76" s="139" t="s">
-        <v>701</v>
       </c>
       <c r="G76" s="140"/>
       <c r="H76" s="141" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I76" s="141">
         <v>8</v>
@@ -39738,40 +39745,40 @@
         <v>8</v>
       </c>
       <c r="K76" s="141" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="L76" s="141" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="M76" s="77">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N76" s="141" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="O76" s="141" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="P76" s="77">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q76" s="141" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="R76" s="141" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="S76" s="77">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T76" s="141" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="U76" s="141" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="V76" s="77">
         <f t="shared" si="15"/>
@@ -39784,17 +39791,17 @@
         <v>0</v>
       </c>
       <c r="Z76" s="141" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AA76" s="141" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AB76" s="77">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC76" s="141" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AD76" s="141"/>
       <c r="AE76" s="77">
@@ -39803,14 +39810,14 @@
       </c>
       <c r="AF76" s="141"/>
       <c r="AG76" s="141" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AH76" s="77">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AI76" s="141" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AJ76" s="77">
         <f t="shared" si="20"/>
@@ -39824,11 +39831,11 @@
         <v>8</v>
       </c>
       <c r="AM76" s="147" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AN76" s="140"/>
     </row>
-    <row r="77" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="77" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="129">
         <v>70</v>
       </c>
@@ -39842,10 +39849,10 @@
         <v>202518</v>
       </c>
       <c r="E77" s="126" t="s">
+        <v>701</v>
+      </c>
+      <c r="F77" s="126" t="s">
         <v>702</v>
-      </c>
-      <c r="F77" s="126" t="s">
-        <v>703</v>
       </c>
       <c r="G77" s="140"/>
       <c r="H77" s="141">
@@ -39953,11 +39960,11 @@
         <v>572</v>
       </c>
       <c r="AM77" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN77" s="140"/>
     </row>
-    <row r="78" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1">
+    <row r="78" spans="1:40" s="131" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="129">
         <v>71</v>
       </c>
@@ -39971,10 +39978,10 @@
         <v>202519</v>
       </c>
       <c r="E78" s="126" t="s">
+        <v>703</v>
+      </c>
+      <c r="F78" s="126" t="s">
         <v>704</v>
-      </c>
-      <c r="F78" s="126" t="s">
-        <v>705</v>
       </c>
       <c r="G78" s="140"/>
       <c r="H78" s="141">
@@ -40082,12 +40089,15 @@
         <v>601</v>
       </c>
       <c r="AM78" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AN78" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:V4"/>
     <mergeCell ref="A1:AN1"/>
     <mergeCell ref="A2:AN2"/>
     <mergeCell ref="A3:AN3"/>
@@ -40104,9 +40114,6 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:V4"/>
   </mergeCells>
   <conditionalFormatting sqref="H8:H78">
     <cfRule type="cellIs" dxfId="46" priority="26" stopIfTrue="1" operator="lessThan">
@@ -40217,14 +40224,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO52"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7" defaultRowHeight="23.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.88671875" customWidth="1"/>
     <col min="2" max="3" width="28.33203125" customWidth="1"/>
@@ -40239,158 +40246,158 @@
     <col min="41" max="41" width="42.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="69.75" customHeight="1">
-      <c r="A1" s="197" t="s">
+    <row r="1" spans="1:41" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="206" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="197"/>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197"/>
-      <c r="G1" s="197"/>
-      <c r="H1" s="197"/>
-      <c r="I1" s="197"/>
-      <c r="J1" s="197"/>
-      <c r="K1" s="197"/>
-      <c r="L1" s="197"/>
-      <c r="M1" s="197"/>
-      <c r="N1" s="197"/>
-      <c r="O1" s="197"/>
-      <c r="P1" s="197"/>
-      <c r="Q1" s="197"/>
-      <c r="R1" s="197"/>
-      <c r="S1" s="197"/>
-      <c r="T1" s="197"/>
-      <c r="U1" s="197"/>
-      <c r="V1" s="197"/>
-      <c r="W1" s="197"/>
-      <c r="X1" s="197"/>
-      <c r="Y1" s="197"/>
-      <c r="Z1" s="197"/>
-      <c r="AA1" s="197"/>
-      <c r="AB1" s="197"/>
-      <c r="AC1" s="197"/>
-      <c r="AD1" s="197"/>
-      <c r="AE1" s="197"/>
-      <c r="AF1" s="197"/>
-      <c r="AG1" s="197"/>
-      <c r="AH1" s="197"/>
-      <c r="AI1" s="197"/>
-      <c r="AJ1" s="197"/>
-      <c r="AK1" s="197"/>
-      <c r="AL1" s="197"/>
-      <c r="AM1" s="197"/>
-      <c r="AN1" s="197"/>
-      <c r="AO1" s="197"/>
+      <c r="B1" s="206"/>
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="206"/>
+      <c r="I1" s="206"/>
+      <c r="J1" s="206"/>
+      <c r="K1" s="206"/>
+      <c r="L1" s="206"/>
+      <c r="M1" s="206"/>
+      <c r="N1" s="206"/>
+      <c r="O1" s="206"/>
+      <c r="P1" s="206"/>
+      <c r="Q1" s="206"/>
+      <c r="R1" s="206"/>
+      <c r="S1" s="206"/>
+      <c r="T1" s="206"/>
+      <c r="U1" s="206"/>
+      <c r="V1" s="206"/>
+      <c r="W1" s="206"/>
+      <c r="X1" s="206"/>
+      <c r="Y1" s="206"/>
+      <c r="Z1" s="206"/>
+      <c r="AA1" s="206"/>
+      <c r="AB1" s="206"/>
+      <c r="AC1" s="206"/>
+      <c r="AD1" s="206"/>
+      <c r="AE1" s="206"/>
+      <c r="AF1" s="206"/>
+      <c r="AG1" s="206"/>
+      <c r="AH1" s="206"/>
+      <c r="AI1" s="206"/>
+      <c r="AJ1" s="206"/>
+      <c r="AK1" s="206"/>
+      <c r="AL1" s="206"/>
+      <c r="AM1" s="206"/>
+      <c r="AN1" s="206"/>
+      <c r="AO1" s="206"/>
     </row>
-    <row r="2" spans="1:41" ht="69.75" customHeight="1">
-      <c r="A2" s="197" t="s">
+    <row r="2" spans="1:41" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="206" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="197"/>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="197"/>
-      <c r="F2" s="197"/>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197"/>
-      <c r="J2" s="197"/>
-      <c r="K2" s="197"/>
-      <c r="L2" s="197"/>
-      <c r="M2" s="197"/>
-      <c r="N2" s="197"/>
-      <c r="O2" s="197"/>
-      <c r="P2" s="197"/>
-      <c r="Q2" s="197"/>
-      <c r="R2" s="197"/>
-      <c r="S2" s="197"/>
-      <c r="T2" s="197"/>
-      <c r="U2" s="197"/>
-      <c r="V2" s="197"/>
-      <c r="W2" s="197"/>
-      <c r="X2" s="197"/>
-      <c r="Y2" s="197"/>
-      <c r="Z2" s="197"/>
-      <c r="AA2" s="197"/>
-      <c r="AB2" s="197"/>
-      <c r="AC2" s="197"/>
-      <c r="AD2" s="197"/>
-      <c r="AE2" s="197"/>
-      <c r="AF2" s="197"/>
-      <c r="AG2" s="197"/>
-      <c r="AH2" s="197"/>
-      <c r="AI2" s="197"/>
-      <c r="AJ2" s="197"/>
-      <c r="AK2" s="197"/>
-      <c r="AL2" s="197"/>
-      <c r="AM2" s="197"/>
-      <c r="AN2" s="197"/>
-      <c r="AO2" s="197"/>
+      <c r="B2" s="206"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="206"/>
+      <c r="K2" s="206"/>
+      <c r="L2" s="206"/>
+      <c r="M2" s="206"/>
+      <c r="N2" s="206"/>
+      <c r="O2" s="206"/>
+      <c r="P2" s="206"/>
+      <c r="Q2" s="206"/>
+      <c r="R2" s="206"/>
+      <c r="S2" s="206"/>
+      <c r="T2" s="206"/>
+      <c r="U2" s="206"/>
+      <c r="V2" s="206"/>
+      <c r="W2" s="206"/>
+      <c r="X2" s="206"/>
+      <c r="Y2" s="206"/>
+      <c r="Z2" s="206"/>
+      <c r="AA2" s="206"/>
+      <c r="AB2" s="206"/>
+      <c r="AC2" s="206"/>
+      <c r="AD2" s="206"/>
+      <c r="AE2" s="206"/>
+      <c r="AF2" s="206"/>
+      <c r="AG2" s="206"/>
+      <c r="AH2" s="206"/>
+      <c r="AI2" s="206"/>
+      <c r="AJ2" s="206"/>
+      <c r="AK2" s="206"/>
+      <c r="AL2" s="206"/>
+      <c r="AM2" s="206"/>
+      <c r="AN2" s="206"/>
+      <c r="AO2" s="206"/>
     </row>
-    <row r="3" spans="1:41" ht="69.75" customHeight="1">
-      <c r="A3" s="198" t="s">
+    <row r="3" spans="1:41" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="207" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="198"/>
-      <c r="C3" s="198"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="198"/>
-      <c r="F3" s="198"/>
-      <c r="G3" s="198"/>
-      <c r="H3" s="198"/>
-      <c r="I3" s="198"/>
-      <c r="J3" s="198"/>
-      <c r="K3" s="198"/>
-      <c r="L3" s="198"/>
-      <c r="M3" s="198"/>
-      <c r="N3" s="198"/>
-      <c r="O3" s="198"/>
-      <c r="P3" s="198"/>
-      <c r="Q3" s="198"/>
-      <c r="R3" s="198"/>
-      <c r="S3" s="198"/>
-      <c r="T3" s="198"/>
-      <c r="U3" s="198"/>
-      <c r="V3" s="198"/>
-      <c r="W3" s="198"/>
-      <c r="X3" s="198"/>
-      <c r="Y3" s="198"/>
-      <c r="Z3" s="198"/>
-      <c r="AA3" s="198"/>
-      <c r="AB3" s="198"/>
-      <c r="AC3" s="198"/>
-      <c r="AD3" s="198"/>
-      <c r="AE3" s="198"/>
-      <c r="AF3" s="198"/>
-      <c r="AG3" s="198"/>
-      <c r="AH3" s="198"/>
-      <c r="AI3" s="198"/>
-      <c r="AJ3" s="198"/>
-      <c r="AK3" s="198"/>
-      <c r="AL3" s="198"/>
-      <c r="AM3" s="198"/>
-      <c r="AN3" s="198"/>
-      <c r="AO3" s="198"/>
+      <c r="B3" s="207"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="207"/>
+      <c r="H3" s="207"/>
+      <c r="I3" s="207"/>
+      <c r="J3" s="207"/>
+      <c r="K3" s="207"/>
+      <c r="L3" s="207"/>
+      <c r="M3" s="207"/>
+      <c r="N3" s="207"/>
+      <c r="O3" s="207"/>
+      <c r="P3" s="207"/>
+      <c r="Q3" s="207"/>
+      <c r="R3" s="207"/>
+      <c r="S3" s="207"/>
+      <c r="T3" s="207"/>
+      <c r="U3" s="207"/>
+      <c r="V3" s="207"/>
+      <c r="W3" s="207"/>
+      <c r="X3" s="207"/>
+      <c r="Y3" s="207"/>
+      <c r="Z3" s="207"/>
+      <c r="AA3" s="207"/>
+      <c r="AB3" s="207"/>
+      <c r="AC3" s="207"/>
+      <c r="AD3" s="207"/>
+      <c r="AE3" s="207"/>
+      <c r="AF3" s="207"/>
+      <c r="AG3" s="207"/>
+      <c r="AH3" s="207"/>
+      <c r="AI3" s="207"/>
+      <c r="AJ3" s="207"/>
+      <c r="AK3" s="207"/>
+      <c r="AL3" s="207"/>
+      <c r="AM3" s="207"/>
+      <c r="AN3" s="207"/>
+      <c r="AO3" s="207"/>
     </row>
-    <row r="4" spans="1:41" ht="23.25" hidden="1" customHeight="1">
-      <c r="A4" s="228"/>
-      <c r="B4" s="228"/>
-      <c r="C4" s="228"/>
-      <c r="D4" s="228"/>
-      <c r="E4" s="228"/>
-      <c r="F4" s="228"/>
-      <c r="G4" s="228"/>
-      <c r="H4" s="228"/>
-      <c r="I4" s="228"/>
+    <row r="4" spans="1:41" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="225"/>
+      <c r="B4" s="225"/>
+      <c r="C4" s="225"/>
+      <c r="D4" s="225"/>
+      <c r="E4" s="225"/>
+      <c r="F4" s="225"/>
+      <c r="G4" s="225"/>
+      <c r="H4" s="225"/>
+      <c r="I4" s="225"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="225"/>
-      <c r="O4" s="225"/>
-      <c r="P4" s="225"/>
+      <c r="N4" s="226"/>
+      <c r="O4" s="226"/>
+      <c r="P4" s="226"/>
       <c r="Q4" s="111"/>
       <c r="R4" s="111"/>
       <c r="S4" s="111"/>
@@ -40417,7 +40424,7 @@
       <c r="AN4" s="1"/>
       <c r="AO4" s="1"/>
     </row>
-    <row r="5" spans="1:41" ht="152.25" customHeight="1">
+    <row r="5" spans="1:41" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="224" t="s">
         <v>1</v>
       </c>
@@ -40430,65 +40437,65 @@
       <c r="D5" s="224" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="226" t="s">
+      <c r="E5" s="227" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="226" t="s">
+      <c r="F5" s="227" t="s">
         <v>26</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="196" t="s">
+      <c r="H5" s="203" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="196"/>
-      <c r="J5" s="196"/>
-      <c r="K5" s="196" t="s">
+      <c r="I5" s="203"/>
+      <c r="J5" s="203"/>
+      <c r="K5" s="203" t="s">
         <v>47</v>
       </c>
-      <c r="L5" s="196"/>
-      <c r="M5" s="196"/>
-      <c r="N5" s="196" t="s">
+      <c r="L5" s="203"/>
+      <c r="M5" s="203"/>
+      <c r="N5" s="203" t="s">
+        <v>734</v>
+      </c>
+      <c r="O5" s="203"/>
+      <c r="P5" s="203"/>
+      <c r="Q5" s="203" t="s">
+        <v>736</v>
+      </c>
+      <c r="R5" s="203"/>
+      <c r="S5" s="203"/>
+      <c r="T5" s="203" t="s">
+        <v>48</v>
+      </c>
+      <c r="U5" s="203"/>
+      <c r="V5" s="203"/>
+      <c r="W5" s="203" t="s">
+        <v>49</v>
+      </c>
+      <c r="X5" s="203"/>
+      <c r="Y5" s="203"/>
+      <c r="Z5" s="203" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA5" s="203"/>
+      <c r="AB5" s="203"/>
+      <c r="AC5" s="203" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD5" s="203"/>
+      <c r="AE5" s="203"/>
+      <c r="AF5" s="203" t="s">
         <v>735</v>
       </c>
-      <c r="O5" s="196"/>
-      <c r="P5" s="196"/>
-      <c r="Q5" s="196" t="s">
-        <v>737</v>
-      </c>
-      <c r="R5" s="196"/>
-      <c r="S5" s="196"/>
-      <c r="T5" s="196" t="s">
-        <v>48</v>
-      </c>
-      <c r="U5" s="196"/>
-      <c r="V5" s="196"/>
-      <c r="W5" s="196" t="s">
-        <v>49</v>
-      </c>
-      <c r="X5" s="196"/>
-      <c r="Y5" s="196"/>
-      <c r="Z5" s="196" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA5" s="196"/>
-      <c r="AB5" s="196"/>
-      <c r="AC5" s="196" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD5" s="196"/>
-      <c r="AE5" s="196"/>
-      <c r="AF5" s="196" t="s">
-        <v>736</v>
-      </c>
-      <c r="AG5" s="196"/>
-      <c r="AH5" s="196"/>
-      <c r="AI5" s="196" t="s">
+      <c r="AG5" s="203"/>
+      <c r="AH5" s="203"/>
+      <c r="AI5" s="203" t="s">
         <v>51</v>
       </c>
-      <c r="AJ5" s="196"/>
-      <c r="AK5" s="196"/>
+      <c r="AJ5" s="203"/>
+      <c r="AK5" s="203"/>
       <c r="AL5" s="57" t="s">
         <v>41</v>
       </c>
@@ -40502,13 +40509,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:41" ht="63" customHeight="1">
+    <row r="6" spans="1:41" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="224"/>
       <c r="B6" s="224"/>
       <c r="C6" s="224"/>
       <c r="D6" s="224"/>
-      <c r="E6" s="226"/>
-      <c r="F6" s="226"/>
+      <c r="E6" s="227"/>
+      <c r="F6" s="227"/>
       <c r="G6" s="5"/>
       <c r="H6" s="11" t="s">
         <v>7</v>
@@ -40605,13 +40612,13 @@
       <c r="AN6" s="5"/>
       <c r="AO6" s="39"/>
     </row>
-    <row r="7" spans="1:41" ht="63" customHeight="1">
+    <row r="7" spans="1:41" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="224"/>
       <c r="B7" s="224"/>
       <c r="C7" s="224"/>
       <c r="D7" s="224"/>
-      <c r="E7" s="226"/>
-      <c r="F7" s="226"/>
+      <c r="E7" s="227"/>
+      <c r="F7" s="227"/>
       <c r="G7" s="70" t="s">
         <v>2</v>
       </c>
@@ -40725,13 +40732,13 @@
       <c r="AN7" s="7"/>
       <c r="AO7" s="40"/>
     </row>
-    <row r="8" spans="1:41" ht="63" customHeight="1">
-      <c r="A8" s="208"/>
-      <c r="B8" s="208"/>
-      <c r="C8" s="208"/>
-      <c r="D8" s="208"/>
-      <c r="E8" s="227"/>
-      <c r="F8" s="227"/>
+    <row r="8" spans="1:41" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="196"/>
+      <c r="B8" s="196"/>
+      <c r="C8" s="196"/>
+      <c r="D8" s="196"/>
+      <c r="E8" s="228"/>
+      <c r="F8" s="228"/>
       <c r="G8" s="72" t="s">
         <v>3</v>
       </c>
@@ -40812,7 +40819,7 @@
       <c r="AN8" s="10"/>
       <c r="AO8" s="93"/>
     </row>
-    <row r="9" spans="1:41" s="54" customFormat="1" ht="84" customHeight="1">
+    <row r="9" spans="1:41" s="54" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="67">
         <v>1</v>
       </c>
@@ -40940,11 +40947,11 @@
         <v>790</v>
       </c>
       <c r="AN9" s="69" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AO9" s="88"/>
     </row>
-    <row r="10" spans="1:41" ht="84" customHeight="1">
+    <row r="10" spans="1:41" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="67">
         <v>2</v>
       </c>
@@ -41072,13 +41079,13 @@
         <v>772</v>
       </c>
       <c r="AN10" s="150" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AO10" s="151" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
-    <row r="11" spans="1:41" ht="84" customHeight="1">
+    <row r="11" spans="1:41" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="67">
         <v>3</v>
       </c>
@@ -41206,11 +41213,11 @@
         <v>667</v>
       </c>
       <c r="AN11" s="69" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AO11" s="151"/>
     </row>
-    <row r="12" spans="1:41" ht="84" customHeight="1">
+    <row r="12" spans="1:41" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="67">
         <v>4</v>
       </c>
@@ -41338,13 +41345,13 @@
         <v>569</v>
       </c>
       <c r="AN12" s="69" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AO12" s="151" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
-    <row r="13" spans="1:41" ht="84" customHeight="1">
+    <row r="13" spans="1:41" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="67">
         <v>5</v>
       </c>
@@ -41472,11 +41479,11 @@
         <v>808</v>
       </c>
       <c r="AN13" s="69" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AO13" s="151"/>
     </row>
-    <row r="14" spans="1:41" ht="84" customHeight="1">
+    <row r="14" spans="1:41" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="67">
         <v>6</v>
       </c>
@@ -41604,11 +41611,11 @@
         <v>800</v>
       </c>
       <c r="AN14" s="69" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AO14" s="151"/>
     </row>
-    <row r="15" spans="1:41" ht="84" customHeight="1">
+    <row r="15" spans="1:41" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="67">
         <v>7</v>
       </c>
@@ -41736,11 +41743,11 @@
         <v>827</v>
       </c>
       <c r="AN15" s="69" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AO15" s="151"/>
     </row>
-    <row r="16" spans="1:41" ht="84" customHeight="1">
+    <row r="16" spans="1:41" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="67">
         <v>8</v>
       </c>
@@ -41868,11 +41875,11 @@
         <v>861</v>
       </c>
       <c r="AN16" s="69" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AO16" s="151"/>
     </row>
-    <row r="17" spans="1:41" ht="84" customHeight="1">
+    <row r="17" spans="1:41" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="67">
         <v>9</v>
       </c>
@@ -42000,11 +42007,11 @@
         <v>798</v>
       </c>
       <c r="AN17" s="69" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AO17" s="151"/>
     </row>
-    <row r="18" spans="1:41" ht="84" customHeight="1">
+    <row r="18" spans="1:41" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="67">
         <v>10</v>
       </c>
@@ -42132,13 +42139,13 @@
         <v>744</v>
       </c>
       <c r="AN18" s="150" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AO18" s="151" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
-    <row r="19" spans="1:41" ht="84" customHeight="1">
+    <row r="19" spans="1:41" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="67">
         <v>11</v>
       </c>
@@ -42266,11 +42273,11 @@
         <v>831</v>
       </c>
       <c r="AN19" s="69" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AO19" s="151"/>
     </row>
-    <row r="20" spans="1:41" ht="84" customHeight="1">
+    <row r="20" spans="1:41" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="67">
         <v>12</v>
       </c>
@@ -42398,13 +42405,13 @@
         <v>695</v>
       </c>
       <c r="AN20" s="150" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AO20" s="151" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
-    <row r="21" spans="1:41" ht="84" customHeight="1">
+    <row r="21" spans="1:41" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="67">
         <v>13</v>
       </c>
@@ -42532,13 +42539,13 @@
         <v>683</v>
       </c>
       <c r="AN21" s="150" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AO21" s="151" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
-    <row r="22" spans="1:41" ht="84" customHeight="1">
+    <row r="22" spans="1:41" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="67">
         <v>14</v>
       </c>
@@ -42666,11 +42673,11 @@
         <v>818</v>
       </c>
       <c r="AN22" s="69" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AO22" s="151"/>
     </row>
-    <row r="23" spans="1:41" ht="84" customHeight="1">
+    <row r="23" spans="1:41" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="67">
         <v>15</v>
       </c>
@@ -42798,13 +42805,13 @@
         <v>754</v>
       </c>
       <c r="AN23" s="69" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AO23" s="151" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
-    <row r="24" spans="1:41" ht="84" customHeight="1">
+    <row r="24" spans="1:41" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="67">
         <v>16</v>
       </c>
@@ -42932,11 +42939,11 @@
         <v>784</v>
       </c>
       <c r="AN24" s="69" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AO24" s="151"/>
     </row>
-    <row r="25" spans="1:41" ht="84" customHeight="1">
+    <row r="25" spans="1:41" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="67">
         <v>17</v>
       </c>
@@ -43064,13 +43071,13 @@
         <v>533</v>
       </c>
       <c r="AN25" s="150" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AO25" s="151" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
-    <row r="26" spans="1:41" ht="84" customHeight="1">
+    <row r="26" spans="1:41" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="67">
         <v>18</v>
       </c>
@@ -43198,11 +43205,11 @@
         <v>818</v>
       </c>
       <c r="AN26" s="69" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AO26" s="151"/>
     </row>
-    <row r="27" spans="1:41" ht="84" customHeight="1">
+    <row r="27" spans="1:41" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="67">
         <v>19</v>
       </c>
@@ -43330,11 +43337,11 @@
         <v>749</v>
       </c>
       <c r="AN27" s="69" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AO27" s="151"/>
     </row>
-    <row r="28" spans="1:41" ht="84" customHeight="1">
+    <row r="28" spans="1:41" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="67">
         <v>20</v>
       </c>
@@ -43462,13 +43469,13 @@
         <v>799</v>
       </c>
       <c r="AN28" s="150" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AO28" s="151" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
-    <row r="29" spans="1:41" ht="84" customHeight="1">
+    <row r="29" spans="1:41" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="67">
         <v>21</v>
       </c>
@@ -43596,11 +43603,11 @@
         <v>834</v>
       </c>
       <c r="AN29" s="69" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AO29" s="151"/>
     </row>
-    <row r="30" spans="1:41" ht="84" customHeight="1">
+    <row r="30" spans="1:41" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="67">
         <v>22</v>
       </c>
@@ -43728,13 +43735,13 @@
         <v>792</v>
       </c>
       <c r="AN30" s="150" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AO30" s="151" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
-    <row r="31" spans="1:41" ht="84" customHeight="1">
+    <row r="31" spans="1:41" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="67">
         <v>23</v>
       </c>
@@ -43862,13 +43869,13 @@
         <v>716</v>
       </c>
       <c r="AN31" s="69" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AO31" s="151" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
-    <row r="32" spans="1:41" ht="84" customHeight="1">
+    <row r="32" spans="1:41" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="67">
         <v>24</v>
       </c>
@@ -43996,11 +44003,11 @@
         <v>745</v>
       </c>
       <c r="AN32" s="69" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AO32" s="151"/>
     </row>
-    <row r="33" spans="1:41" ht="84" customHeight="1">
+    <row r="33" spans="1:41" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="67">
         <v>25</v>
       </c>
@@ -44128,11 +44135,11 @@
         <v>910</v>
       </c>
       <c r="AN33" s="69" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AO33" s="151"/>
     </row>
-    <row r="34" spans="1:41" ht="84" customHeight="1">
+    <row r="34" spans="1:41" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="67">
         <v>26</v>
       </c>
@@ -44260,11 +44267,11 @@
         <v>847</v>
       </c>
       <c r="AN34" s="69" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AO34" s="151"/>
     </row>
-    <row r="35" spans="1:41" ht="84" customHeight="1">
+    <row r="35" spans="1:41" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="67">
         <v>27</v>
       </c>
@@ -44392,11 +44399,11 @@
         <v>730</v>
       </c>
       <c r="AN35" s="69" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AO35" s="151"/>
     </row>
-    <row r="36" spans="1:41" ht="84" customHeight="1">
+    <row r="36" spans="1:41" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="67">
         <v>28</v>
       </c>
@@ -44524,13 +44531,13 @@
         <v>640</v>
       </c>
       <c r="AN36" s="150" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AO36" s="151" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
-    <row r="37" spans="1:41" ht="84" customHeight="1">
+    <row r="37" spans="1:41" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="67">
         <v>29</v>
       </c>
@@ -44658,11 +44665,11 @@
         <v>733</v>
       </c>
       <c r="AN37" s="69" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AO37" s="151"/>
     </row>
-    <row r="38" spans="1:41" ht="84" customHeight="1">
+    <row r="38" spans="1:41" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="67">
         <v>30</v>
       </c>
@@ -44790,13 +44797,13 @@
         <v>776</v>
       </c>
       <c r="AN38" s="69" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AO38" s="151" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
-    <row r="39" spans="1:41" ht="84" customHeight="1">
+    <row r="39" spans="1:41" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="67">
         <v>31</v>
       </c>
@@ -44924,11 +44931,11 @@
         <v>903</v>
       </c>
       <c r="AN39" s="69" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AO39" s="151"/>
     </row>
-    <row r="40" spans="1:41" ht="84" customHeight="1">
+    <row r="40" spans="1:41" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="67">
         <v>32</v>
       </c>
@@ -45056,11 +45063,11 @@
         <v>746</v>
       </c>
       <c r="AN40" s="69" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AO40" s="151"/>
     </row>
-    <row r="41" spans="1:41" ht="84" customHeight="1">
+    <row r="41" spans="1:41" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="67">
         <v>33</v>
       </c>
@@ -45188,13 +45195,13 @@
         <v>809</v>
       </c>
       <c r="AN41" s="150" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AO41" s="151" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
-    <row r="42" spans="1:41" ht="84" customHeight="1">
+    <row r="42" spans="1:41" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="67">
         <v>34</v>
       </c>
@@ -45322,11 +45329,11 @@
         <v>795</v>
       </c>
       <c r="AN42" s="69" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AO42" s="151"/>
     </row>
-    <row r="43" spans="1:41" ht="84" customHeight="1">
+    <row r="43" spans="1:41" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="67">
         <v>35</v>
       </c>
@@ -45454,11 +45461,11 @@
         <v>738</v>
       </c>
       <c r="AN43" s="69" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AO43" s="151"/>
     </row>
-    <row r="44" spans="1:41" ht="84" customHeight="1">
+    <row r="44" spans="1:41" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="67">
         <v>36</v>
       </c>
@@ -45586,11 +45593,11 @@
         <v>759</v>
       </c>
       <c r="AN44" s="69" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AO44" s="151"/>
     </row>
-    <row r="45" spans="1:41" ht="84" customHeight="1">
+    <row r="45" spans="1:41" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="67">
         <v>37</v>
       </c>
@@ -45718,11 +45725,11 @@
         <v>806</v>
       </c>
       <c r="AN45" s="69" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AO45" s="151"/>
     </row>
-    <row r="46" spans="1:41" ht="84" customHeight="1">
+    <row r="46" spans="1:41" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="67">
         <v>38</v>
       </c>
@@ -45850,11 +45857,11 @@
         <v>909</v>
       </c>
       <c r="AN46" s="69" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AO46" s="151"/>
     </row>
-    <row r="47" spans="1:41" ht="84" customHeight="1">
+    <row r="47" spans="1:41" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="67">
         <v>39</v>
       </c>
@@ -45982,11 +45989,11 @@
         <v>762</v>
       </c>
       <c r="AN47" s="69" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AO47" s="151"/>
     </row>
-    <row r="48" spans="1:41" ht="84" customHeight="1">
+    <row r="48" spans="1:41" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="67">
         <v>40</v>
       </c>
@@ -46007,7 +46014,7 @@
       </c>
       <c r="G48" s="112"/>
       <c r="H48" s="158" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I48" s="158">
         <v>20</v>
@@ -46017,7 +46024,7 @@
         <v>20</v>
       </c>
       <c r="K48" s="158" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="L48" s="158">
         <v>43</v>
@@ -46027,7 +46034,7 @@
         <v>43</v>
       </c>
       <c r="N48" s="158" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="O48" s="158">
         <v>30</v>
@@ -46047,7 +46054,7 @@
         <v>43</v>
       </c>
       <c r="T48" s="158" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="U48" s="158">
         <v>32</v>
@@ -46057,17 +46064,17 @@
         <v>32</v>
       </c>
       <c r="W48" s="158" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="X48" s="158" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="Y48" s="77">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z48" s="158" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AA48" s="158">
         <v>14</v>
@@ -46077,7 +46084,7 @@
         <v>14</v>
       </c>
       <c r="AC48" s="158" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AD48" s="158">
         <v>20</v>
@@ -46087,7 +46094,7 @@
         <v>20</v>
       </c>
       <c r="AF48" s="158" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AG48" s="158">
         <v>16</v>
@@ -46097,10 +46104,10 @@
         <v>16</v>
       </c>
       <c r="AI48" s="158" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AJ48" s="158" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AK48" s="77">
         <f t="shared" si="9"/>
@@ -46114,11 +46121,11 @@
         <v>218</v>
       </c>
       <c r="AN48" s="152" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AO48" s="151"/>
     </row>
-    <row r="49" spans="1:41" ht="84" customHeight="1">
+    <row r="49" spans="1:41" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="67">
         <v>41</v>
       </c>
@@ -46246,11 +46253,11 @@
         <v>795</v>
       </c>
       <c r="AN49" s="69" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AO49" s="151"/>
     </row>
-    <row r="50" spans="1:41" ht="84" customHeight="1">
+    <row r="50" spans="1:41" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="67">
         <v>42</v>
       </c>
@@ -46378,11 +46385,11 @@
         <v>755</v>
       </c>
       <c r="AN50" s="69" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AO50" s="151"/>
     </row>
-    <row r="51" spans="1:41" ht="84" customHeight="1">
+    <row r="51" spans="1:41" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="67">
         <v>43</v>
       </c>
@@ -46510,11 +46517,11 @@
         <v>756</v>
       </c>
       <c r="AN51" s="69" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AO51" s="151"/>
     </row>
-    <row r="52" spans="1:41" ht="84" customHeight="1">
+    <row r="52" spans="1:41" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="67">
         <v>44</v>
       </c>
@@ -46642,19 +46649,14 @@
         <v>691</v>
       </c>
       <c r="AN52" s="150" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AO52" s="151" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="AF5:AH5"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="A5:A8"/>
     <mergeCell ref="A1:AO1"/>
     <mergeCell ref="A3:AO3"/>
     <mergeCell ref="W5:Y5"/>
@@ -46671,6 +46673,11 @@
     <mergeCell ref="E5:E8"/>
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="F5:F8"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="AF5:AH5"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="A5:A8"/>
   </mergeCells>
   <conditionalFormatting sqref="H9:H52">
     <cfRule type="cellIs" dxfId="26" priority="20" stopIfTrue="1" operator="lessThan">
@@ -46782,14 +46789,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF68"/>
   <sheetViews>
     <sheetView topLeftCell="A46" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
       <selection activeCell="B4" sqref="B1:B65536"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="2" max="2" width="31.5546875" customWidth="1"/>
@@ -46804,79 +46811,79 @@
     <col min="32" max="32" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="74.25" customHeight="1">
-      <c r="A1" s="198" t="s">
+    <row r="1" spans="1:32" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="198"/>
-      <c r="P1" s="198"/>
-      <c r="Q1" s="198"/>
-      <c r="R1" s="198"/>
-      <c r="S1" s="198"/>
-      <c r="T1" s="198"/>
-      <c r="U1" s="198"/>
-      <c r="V1" s="198"/>
-      <c r="W1" s="198"/>
-      <c r="X1" s="198"/>
-      <c r="Y1" s="198"/>
-      <c r="Z1" s="198"/>
-      <c r="AA1" s="198"/>
-      <c r="AB1" s="198"/>
-      <c r="AC1" s="198"/>
-      <c r="AD1" s="198"/>
-      <c r="AE1" s="198"/>
-      <c r="AF1" s="198"/>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="207"/>
+      <c r="K1" s="207"/>
+      <c r="L1" s="207"/>
+      <c r="M1" s="207"/>
+      <c r="N1" s="207"/>
+      <c r="O1" s="207"/>
+      <c r="P1" s="207"/>
+      <c r="Q1" s="207"/>
+      <c r="R1" s="207"/>
+      <c r="S1" s="207"/>
+      <c r="T1" s="207"/>
+      <c r="U1" s="207"/>
+      <c r="V1" s="207"/>
+      <c r="W1" s="207"/>
+      <c r="X1" s="207"/>
+      <c r="Y1" s="207"/>
+      <c r="Z1" s="207"/>
+      <c r="AA1" s="207"/>
+      <c r="AB1" s="207"/>
+      <c r="AC1" s="207"/>
+      <c r="AD1" s="207"/>
+      <c r="AE1" s="207"/>
+      <c r="AF1" s="207"/>
     </row>
-    <row r="2" spans="1:32" ht="74.25" customHeight="1">
-      <c r="A2" s="198" t="s">
+    <row r="2" spans="1:32" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="207" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="198"/>
-      <c r="C2" s="198"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="198"/>
-      <c r="F2" s="198"/>
-      <c r="G2" s="198"/>
-      <c r="H2" s="198"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="198"/>
-      <c r="K2" s="198"/>
-      <c r="L2" s="198"/>
-      <c r="M2" s="198"/>
-      <c r="N2" s="198"/>
-      <c r="O2" s="198"/>
-      <c r="P2" s="198"/>
-      <c r="Q2" s="198"/>
-      <c r="R2" s="198"/>
-      <c r="S2" s="198"/>
-      <c r="T2" s="198"/>
-      <c r="U2" s="198"/>
-      <c r="V2" s="198"/>
-      <c r="W2" s="198"/>
-      <c r="X2" s="198"/>
-      <c r="Y2" s="198"/>
-      <c r="Z2" s="198"/>
-      <c r="AA2" s="198"/>
-      <c r="AB2" s="198"/>
-      <c r="AC2" s="198"/>
-      <c r="AD2" s="198"/>
-      <c r="AE2" s="198"/>
-      <c r="AF2" s="198"/>
+      <c r="B2" s="207"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="207"/>
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="207"/>
+      <c r="N2" s="207"/>
+      <c r="O2" s="207"/>
+      <c r="P2" s="207"/>
+      <c r="Q2" s="207"/>
+      <c r="R2" s="207"/>
+      <c r="S2" s="207"/>
+      <c r="T2" s="207"/>
+      <c r="U2" s="207"/>
+      <c r="V2" s="207"/>
+      <c r="W2" s="207"/>
+      <c r="X2" s="207"/>
+      <c r="Y2" s="207"/>
+      <c r="Z2" s="207"/>
+      <c r="AA2" s="207"/>
+      <c r="AB2" s="207"/>
+      <c r="AC2" s="207"/>
+      <c r="AD2" s="207"/>
+      <c r="AE2" s="207"/>
+      <c r="AF2" s="207"/>
     </row>
-    <row r="3" spans="1:32" ht="74.25" customHeight="1">
+    <row r="3" spans="1:32" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="231" t="s">
         <v>74</v>
       </c>
@@ -46912,7 +46919,7 @@
       <c r="AE3" s="231"/>
       <c r="AF3" s="231"/>
     </row>
-    <row r="4" spans="1:32" ht="191.25" customHeight="1">
+    <row r="4" spans="1:32" ht="191.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="230" t="s">
         <v>1</v>
       </c>
@@ -46934,41 +46941,41 @@
       <c r="G4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="196" t="s">
+      <c r="H4" s="203" t="s">
+        <v>706</v>
+      </c>
+      <c r="I4" s="203"/>
+      <c r="J4" s="203"/>
+      <c r="K4" s="203" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="203"/>
+      <c r="M4" s="203"/>
+      <c r="N4" s="203" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" s="203"/>
+      <c r="P4" s="203"/>
+      <c r="Q4" s="208" t="s">
         <v>707</v>
       </c>
-      <c r="I4" s="196"/>
-      <c r="J4" s="196"/>
-      <c r="K4" s="196" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" s="196"/>
-      <c r="M4" s="196"/>
-      <c r="N4" s="196" t="s">
-        <v>70</v>
-      </c>
-      <c r="O4" s="196"/>
-      <c r="P4" s="196"/>
-      <c r="Q4" s="202" t="s">
+      <c r="R4" s="209"/>
+      <c r="S4" s="210"/>
+      <c r="T4" s="203" t="s">
         <v>708</v>
       </c>
-      <c r="R4" s="203"/>
-      <c r="S4" s="204"/>
-      <c r="T4" s="196" t="s">
-        <v>709</v>
-      </c>
-      <c r="U4" s="196"/>
-      <c r="V4" s="196"/>
-      <c r="W4" s="202" t="s">
-        <v>732</v>
-      </c>
-      <c r="X4" s="203"/>
-      <c r="Y4" s="204"/>
-      <c r="Z4" s="196" t="s">
+      <c r="U4" s="203"/>
+      <c r="V4" s="203"/>
+      <c r="W4" s="208" t="s">
+        <v>731</v>
+      </c>
+      <c r="X4" s="209"/>
+      <c r="Y4" s="210"/>
+      <c r="Z4" s="203" t="s">
         <v>67</v>
       </c>
-      <c r="AA4" s="196"/>
-      <c r="AB4" s="196"/>
+      <c r="AA4" s="203"/>
+      <c r="AB4" s="203"/>
       <c r="AC4" s="57" t="s">
         <v>37</v>
       </c>
@@ -46982,7 +46989,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="39" customHeight="1">
+    <row r="5" spans="1:32" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="230"/>
       <c r="B5" s="230"/>
       <c r="C5" s="230"/>
@@ -47058,7 +47065,7 @@
       <c r="AE5" s="8"/>
       <c r="AF5" s="35"/>
     </row>
-    <row r="6" spans="1:32" ht="39" customHeight="1">
+    <row r="6" spans="1:32" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="230"/>
       <c r="B6" s="230"/>
       <c r="C6" s="230"/>
@@ -47147,7 +47154,7 @@
       <c r="AE6" s="7"/>
       <c r="AF6" s="27"/>
     </row>
-    <row r="7" spans="1:32" ht="39" customHeight="1">
+    <row r="7" spans="1:32" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="230"/>
       <c r="B7" s="230"/>
       <c r="C7" s="230"/>
@@ -47213,7 +47220,7 @@
       <c r="AE7" s="10"/>
       <c r="AF7" s="37"/>
     </row>
-    <row r="8" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1">
+    <row r="8" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="74">
         <v>1</v>
       </c>
@@ -47316,11 +47323,11 @@
         <v>783</v>
       </c>
       <c r="AE8" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF8" s="88"/>
     </row>
-    <row r="9" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1">
+    <row r="9" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="74">
         <v>2</v>
       </c>
@@ -47423,11 +47430,11 @@
         <v>812</v>
       </c>
       <c r="AE9" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF9" s="88"/>
     </row>
-    <row r="10" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1">
+    <row r="10" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="74">
         <v>3</v>
       </c>
@@ -47530,11 +47537,11 @@
         <v>756</v>
       </c>
       <c r="AE10" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF10" s="88"/>
     </row>
-    <row r="11" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1">
+    <row r="11" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="74">
         <v>4</v>
       </c>
@@ -47637,11 +47644,11 @@
         <v>783</v>
       </c>
       <c r="AE11" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF11" s="88"/>
     </row>
-    <row r="12" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1">
+    <row r="12" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="74">
         <v>5</v>
       </c>
@@ -47744,11 +47751,11 @@
         <v>785</v>
       </c>
       <c r="AE12" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF12" s="88"/>
     </row>
-    <row r="13" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1">
+    <row r="13" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="74">
         <v>6</v>
       </c>
@@ -47851,11 +47858,11 @@
         <v>755</v>
       </c>
       <c r="AE13" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF13" s="88"/>
     </row>
-    <row r="14" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1">
+    <row r="14" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="74">
         <v>7</v>
       </c>
@@ -47958,11 +47965,11 @@
         <v>831</v>
       </c>
       <c r="AE14" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF14" s="88"/>
     </row>
-    <row r="15" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1">
+    <row r="15" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="74">
         <v>8</v>
       </c>
@@ -48065,11 +48072,11 @@
         <v>741</v>
       </c>
       <c r="AE15" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF15" s="88"/>
     </row>
-    <row r="16" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1">
+    <row r="16" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="74">
         <v>9</v>
       </c>
@@ -48172,11 +48179,11 @@
         <v>748</v>
       </c>
       <c r="AE16" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF16" s="88"/>
     </row>
-    <row r="17" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1">
+    <row r="17" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="74">
         <v>10</v>
       </c>
@@ -48279,11 +48286,11 @@
         <v>765</v>
       </c>
       <c r="AE17" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF17" s="88"/>
     </row>
-    <row r="18" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1">
+    <row r="18" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="74">
         <v>11</v>
       </c>
@@ -48386,11 +48393,11 @@
         <v>818</v>
       </c>
       <c r="AE18" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF18" s="88"/>
     </row>
-    <row r="19" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1">
+    <row r="19" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="74">
         <v>12</v>
       </c>
@@ -48493,11 +48500,11 @@
         <v>830</v>
       </c>
       <c r="AE19" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF19" s="88"/>
     </row>
-    <row r="20" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1">
+    <row r="20" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="74">
         <v>13</v>
       </c>
@@ -48600,11 +48607,11 @@
         <v>830</v>
       </c>
       <c r="AE20" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF20" s="88"/>
     </row>
-    <row r="21" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1">
+    <row r="21" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="74">
         <v>14</v>
       </c>
@@ -48707,11 +48714,11 @@
         <v>796</v>
       </c>
       <c r="AE21" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF21" s="88"/>
     </row>
-    <row r="22" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1">
+    <row r="22" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="74">
         <v>15</v>
       </c>
@@ -48814,11 +48821,11 @@
         <v>719</v>
       </c>
       <c r="AE22" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF22" s="88"/>
     </row>
-    <row r="23" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1">
+    <row r="23" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="74">
         <v>16</v>
       </c>
@@ -48921,11 +48928,11 @@
         <v>790</v>
       </c>
       <c r="AE23" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF23" s="88"/>
     </row>
-    <row r="24" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1">
+    <row r="24" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="74">
         <v>17</v>
       </c>
@@ -49028,11 +49035,11 @@
         <v>749</v>
       </c>
       <c r="AE24" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF24" s="88"/>
     </row>
-    <row r="25" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1">
+    <row r="25" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="74">
         <v>18</v>
       </c>
@@ -49135,11 +49142,11 @@
         <v>723</v>
       </c>
       <c r="AE25" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF25" s="88"/>
     </row>
-    <row r="26" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1">
+    <row r="26" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="74">
         <v>19</v>
       </c>
@@ -49242,11 +49249,11 @@
         <v>738</v>
       </c>
       <c r="AE26" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF26" s="88"/>
     </row>
-    <row r="27" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1">
+    <row r="27" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="74">
         <v>20</v>
       </c>
@@ -49349,11 +49356,11 @@
         <v>775</v>
       </c>
       <c r="AE27" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF27" s="88"/>
     </row>
-    <row r="28" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1">
+    <row r="28" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="74">
         <v>21</v>
       </c>
@@ -49456,11 +49463,11 @@
         <v>783</v>
       </c>
       <c r="AE28" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF28" s="88"/>
     </row>
-    <row r="29" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1">
+    <row r="29" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="74">
         <v>22</v>
       </c>
@@ -49563,11 +49570,11 @@
         <v>797</v>
       </c>
       <c r="AE29" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF29" s="88"/>
     </row>
-    <row r="30" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1">
+    <row r="30" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="74">
         <v>23</v>
       </c>
@@ -49670,11 +49677,11 @@
         <v>796</v>
       </c>
       <c r="AE30" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF30" s="88"/>
     </row>
-    <row r="31" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1">
+    <row r="31" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="74">
         <v>24</v>
       </c>
@@ -49777,11 +49784,11 @@
         <v>781</v>
       </c>
       <c r="AE31" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF31" s="88"/>
     </row>
-    <row r="32" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1">
+    <row r="32" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="74">
         <v>25</v>
       </c>
@@ -49884,11 +49891,11 @@
         <v>739</v>
       </c>
       <c r="AE32" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF32" s="88"/>
     </row>
-    <row r="33" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1">
+    <row r="33" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="74">
         <v>26</v>
       </c>
@@ -49991,11 +49998,11 @@
         <v>726</v>
       </c>
       <c r="AE33" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF33" s="88"/>
     </row>
-    <row r="34" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1">
+    <row r="34" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="74">
         <v>27</v>
       </c>
@@ -50098,11 +50105,11 @@
         <v>724</v>
       </c>
       <c r="AE34" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF34" s="88"/>
     </row>
-    <row r="35" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1">
+    <row r="35" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="74">
         <v>28</v>
       </c>
@@ -50205,11 +50212,11 @@
         <v>713</v>
       </c>
       <c r="AE35" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF35" s="88"/>
     </row>
-    <row r="36" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1">
+    <row r="36" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="74">
         <v>29</v>
       </c>
@@ -50312,11 +50319,11 @@
         <v>721</v>
       </c>
       <c r="AE36" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF36" s="88"/>
     </row>
-    <row r="37" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1">
+    <row r="37" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="74">
         <v>30</v>
       </c>
@@ -50419,11 +50426,11 @@
         <v>719</v>
       </c>
       <c r="AE37" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF37" s="88"/>
     </row>
-    <row r="38" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1">
+    <row r="38" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="74">
         <v>31</v>
       </c>
@@ -50526,11 +50533,11 @@
         <v>730</v>
       </c>
       <c r="AE38" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF38" s="88"/>
     </row>
-    <row r="39" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1">
+    <row r="39" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="74">
         <v>32</v>
       </c>
@@ -50633,11 +50640,11 @@
         <v>810</v>
       </c>
       <c r="AE39" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF39" s="88"/>
     </row>
-    <row r="40" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1">
+    <row r="40" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="74">
         <v>33</v>
       </c>
@@ -50740,11 +50747,11 @@
         <v>796</v>
       </c>
       <c r="AE40" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF40" s="88"/>
     </row>
-    <row r="41" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1">
+    <row r="41" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="74">
         <v>34</v>
       </c>
@@ -50847,11 +50854,11 @@
         <v>780</v>
       </c>
       <c r="AE41" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF41" s="88"/>
     </row>
-    <row r="42" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1">
+    <row r="42" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="74">
         <v>35</v>
       </c>
@@ -50954,11 +50961,11 @@
         <v>748</v>
       </c>
       <c r="AE42" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF42" s="88"/>
     </row>
-    <row r="43" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1">
+    <row r="43" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="74">
         <v>36</v>
       </c>
@@ -51061,11 +51068,11 @@
         <v>795</v>
       </c>
       <c r="AE43" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF43" s="88"/>
     </row>
-    <row r="44" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1">
+    <row r="44" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="74">
         <v>37</v>
       </c>
@@ -51168,11 +51175,11 @@
         <v>834</v>
       </c>
       <c r="AE44" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF44" s="88"/>
     </row>
-    <row r="45" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1">
+    <row r="45" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="74">
         <v>38</v>
       </c>
@@ -51275,11 +51282,11 @@
         <v>808</v>
       </c>
       <c r="AE45" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF45" s="88"/>
     </row>
-    <row r="46" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1">
+    <row r="46" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="74">
         <v>39</v>
       </c>
@@ -51382,11 +51389,11 @@
         <v>671</v>
       </c>
       <c r="AE46" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF46" s="88"/>
     </row>
-    <row r="47" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1">
+    <row r="47" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="74">
         <v>40</v>
       </c>
@@ -51489,11 +51496,11 @@
         <v>710</v>
       </c>
       <c r="AE47" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF47" s="88"/>
     </row>
-    <row r="48" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1">
+    <row r="48" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="74">
         <v>41</v>
       </c>
@@ -51596,11 +51603,11 @@
         <v>692</v>
       </c>
       <c r="AE48" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF48" s="88"/>
     </row>
-    <row r="49" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1">
+    <row r="49" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="74">
         <v>42</v>
       </c>
@@ -51703,11 +51710,11 @@
         <v>792</v>
       </c>
       <c r="AE49" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF49" s="88"/>
     </row>
-    <row r="50" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1">
+    <row r="50" spans="1:32" s="48" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="74">
         <v>43</v>
       </c>
@@ -51810,11 +51817,11 @@
         <v>759</v>
       </c>
       <c r="AE50" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF50" s="88"/>
     </row>
-    <row r="51" spans="1:32" ht="72" customHeight="1">
+    <row r="51" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="74">
         <v>44</v>
       </c>
@@ -51917,11 +51924,11 @@
         <v>722</v>
       </c>
       <c r="AE51" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF51" s="88"/>
     </row>
-    <row r="52" spans="1:32" ht="72" customHeight="1">
+    <row r="52" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="74">
         <v>45</v>
       </c>
@@ -52024,11 +52031,11 @@
         <v>793</v>
       </c>
       <c r="AE52" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF52" s="81"/>
     </row>
-    <row r="53" spans="1:32" ht="72" customHeight="1">
+    <row r="53" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="74">
         <v>46</v>
       </c>
@@ -52131,11 +52138,11 @@
         <v>692</v>
       </c>
       <c r="AE53" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF53" s="88"/>
     </row>
-    <row r="54" spans="1:32" ht="72" customHeight="1">
+    <row r="54" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="74">
         <v>47</v>
       </c>
@@ -52238,11 +52245,11 @@
         <v>750</v>
       </c>
       <c r="AE54" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF54" s="88"/>
     </row>
-    <row r="55" spans="1:32" ht="72" customHeight="1">
+    <row r="55" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="74">
         <v>48</v>
       </c>
@@ -52345,11 +52352,11 @@
         <v>716</v>
       </c>
       <c r="AE55" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF55" s="81"/>
     </row>
-    <row r="56" spans="1:32" ht="72" customHeight="1">
+    <row r="56" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="74">
         <v>49</v>
       </c>
@@ -52447,11 +52454,11 @@
         <v>629</v>
       </c>
       <c r="AE56" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF56" s="88"/>
     </row>
-    <row r="57" spans="1:32" ht="72" customHeight="1">
+    <row r="57" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="74">
         <v>50</v>
       </c>
@@ -52549,11 +52556,11 @@
         <v>620</v>
       </c>
       <c r="AE57" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF57" s="88"/>
     </row>
-    <row r="58" spans="1:32" ht="72" customHeight="1">
+    <row r="58" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="74">
         <v>51</v>
       </c>
@@ -52651,11 +52658,11 @@
         <v>596</v>
       </c>
       <c r="AE58" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF58" s="88"/>
     </row>
-    <row r="59" spans="1:32" ht="72" customHeight="1">
+    <row r="59" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="74">
         <v>52</v>
       </c>
@@ -52753,11 +52760,11 @@
         <v>672</v>
       </c>
       <c r="AE59" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF59" s="81"/>
     </row>
-    <row r="60" spans="1:32" ht="72" customHeight="1">
+    <row r="60" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="74">
         <v>53</v>
       </c>
@@ -52855,11 +52862,11 @@
         <v>639</v>
       </c>
       <c r="AE60" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF60" s="81"/>
     </row>
-    <row r="61" spans="1:32" ht="72" customHeight="1">
+    <row r="61" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="74">
         <v>54</v>
       </c>
@@ -52957,11 +52964,11 @@
         <v>670</v>
       </c>
       <c r="AE61" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF61" s="81"/>
     </row>
-    <row r="62" spans="1:32" ht="72" customHeight="1">
+    <row r="62" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="74">
         <v>55</v>
       </c>
@@ -53059,11 +53066,11 @@
         <v>735</v>
       </c>
       <c r="AE62" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF62" s="81"/>
     </row>
-    <row r="63" spans="1:32" ht="72" customHeight="1">
+    <row r="63" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="74">
         <v>56</v>
       </c>
@@ -53161,11 +53168,11 @@
         <v>676</v>
       </c>
       <c r="AE63" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF63" s="81"/>
     </row>
-    <row r="64" spans="1:32" ht="72" customHeight="1">
+    <row r="64" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="74">
         <v>57</v>
       </c>
@@ -53263,11 +53270,11 @@
         <v>643</v>
       </c>
       <c r="AE64" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF64" s="81"/>
     </row>
-    <row r="65" spans="1:32" ht="72" customHeight="1">
+    <row r="65" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="74">
         <v>58</v>
       </c>
@@ -53365,11 +53372,11 @@
         <v>744</v>
       </c>
       <c r="AE65" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF65" s="88"/>
     </row>
-    <row r="66" spans="1:32" ht="72" customHeight="1">
+    <row r="66" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="74">
         <v>59</v>
       </c>
@@ -53467,11 +53474,11 @@
         <v>742</v>
       </c>
       <c r="AE66" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF66" s="81"/>
     </row>
-    <row r="67" spans="1:32" ht="72" customHeight="1">
+    <row r="67" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="74">
         <v>60</v>
       </c>
@@ -53569,11 +53576,11 @@
         <v>638</v>
       </c>
       <c r="AE67" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF67" s="81"/>
     </row>
-    <row r="68" spans="1:32" ht="72" customHeight="1">
+    <row r="68" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="74">
         <v>61</v>
       </c>
@@ -53671,7 +53678,7 @@
         <v>571</v>
       </c>
       <c r="AE68" s="123" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF68" s="81"/>
     </row>
